--- a/data/hotels_by_city/Houston/Houston_shard_122.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_122.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="805">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d5551125-Reviews-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites-Near-Westchase-On-Beltway-8.h6120179.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2291 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r583908516-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>5551125</t>
+  </si>
+  <si>
+    <t>583908516</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Worse visit ever</t>
+  </si>
+  <si>
+    <t>I booked a double queen suite to accommodate myself and my family. This booking was done over a month in advance. Upon arrival the check in went smoothly, however once inside the room we realized the door was broken and we would not be able to lock the door when leaving the hotel. We notified the front desk and their response was to "upgrade"my room until the door could be fixed.  So my family and I packed up and walked down the hall to our new room. This room was far from an upgrade it was smaller and only contained one bed. I notified the desk of this unacceptable situation, and was then told I would simply have to wait until someone checked out and then we could move to that room. Frustrated, because at this point we are already late to our event due to the switcheroo with rooms, I said i would just handle it later. Needless to say they  never did correct the issue so my family and I  slept in one bed and on the sofa. I would assume they would at least reimburse the extra money i paid for the double queen suite over perhaps a free night. Anything! Sometimes apologies just are not enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I booked a double queen suite to accommodate myself and my family. This booking was done over a month in advance. Upon arrival the check in went smoothly, however once inside the room we realized the door was broken and we would not be able to lock the door when leaving the hotel. We notified the front desk and their response was to "upgrade"my room until the door could be fixed.  So my family and I packed up and walked down the hall to our new room. This room was far from an upgrade it was smaller and only contained one bed. I notified the desk of this unacceptable situation, and was then told I would simply have to wait until someone checked out and then we could move to that room. Frustrated, because at this point we are already late to our event due to the switcheroo with rooms, I said i would just handle it later. Needless to say they  never did correct the issue so my family and I  slept in one bed and on the sofa. I would assume they would at least reimburse the extra money i paid for the double queen suite over perhaps a free night. Anything! Sometimes apologies just are not enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r582417243-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582417243</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Night Stay </t>
+  </si>
+  <si>
+    <t>When you walk in, this hotel  is clean and looks nice.  Front desk staff were courteous when checked in and checked out. The bed was comfortable. I wish had more than 2 pillows but maybe if I asked they would have accommodated. Fridge didn't work. We told the guy when we left. He said they would fix. Bathroom was clean. Breakfast was muffins,biscuits,sausage,scrambled eggs and you can make your own waffles,fruit,coffee. Ate a teaspoon of eggs,weren't bad. I recommend this hotel if you are not picky about stains in hallway carpet,dust. If you are ok with clean bed and tub and simply looking for somewhere to lay your head for short stay and your on a budget,I would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>When you walk in, this hotel  is clean and looks nice.  Front desk staff were courteous when checked in and checked out. The bed was comfortable. I wish had more than 2 pillows but maybe if I asked they would have accommodated. Fridge didn't work. We told the guy when we left. He said they would fix. Bathroom was clean. Breakfast was muffins,biscuits,sausage,scrambled eggs and you can make your own waffles,fruit,coffee. Ate a teaspoon of eggs,weren't bad. I recommend this hotel if you are not picky about stains in hallway carpet,dust. If you are ok with clean bed and tub and simply looking for somewhere to lay your head for short stay and your on a budget,I would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r573831943-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573831943</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Close to Highway </t>
+  </si>
+  <si>
+    <t>Very clean upscale in nice area off from HighwayThis hotel is in excellent condition the rooms are spacious and cleanThe bad felt like heavenHas a walk-in showerBreakfast was greatI would definitely recommend this hotelGreat service</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r559435738-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559435738</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>My experience with Comfort Suites Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great service and location. Quiet place. Attentive staff. The rooms were very clean. We stayed few times at this location and we really liked it.The hotel is near several restaurants including Vietnamese &amp; Korean. </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r557832611-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557832611</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>BEST RECEPTIONIST EVER</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 days and I enjoyed my time here.ALI was so nice to me, he helped me to finish my work and meet my deadline. He is truly the best RECEPTIONIST. The rooms were clean and bathroom were very nice. very quit and I got nice sleep here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r557462687-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557462687</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Above average Comfort Suites</t>
+  </si>
+  <si>
+    <t>Very nice property, either recently built or very well remodeled. Staff were friendly and professional. Room was clean and comfy. I had a king bed. I didn't make it down to breakfast. This place is pretty convenient to freeways and restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r554277131-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554277131</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Extended Stay- Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a few times but most recently I had to stay at this hotel while my home was being renovated for an extended period of time. The hotel is very presentable, clean with an adequate breakfast for a 2 Star hotel. Some people try to compare a 2 Star to a 5 Star and it’s not a fair comparison with one exception and that is customer service. I’ve stayed at many from 5 to 2 stars and the hotel’s service can compete with some of the best. The staff is very friendly and accommodating. The MVPs of this great team is Ali and Andrea on the 3 to 11 shift.  I think this shift is one of the most important because it’s when people check-in and get their first impression of your hotel and when people staying extended periods come in from work or their meetings for the day. These two don’t just do bare minimum but go over and beyond to make the guests feel welcome. In the evenings hot, fresh coffee is made and hot water is ready for tea. Twice a week there is a Happy Hour and they always have it out on time and greet you with a smile. That may seem small but is huge after a long day at the office. Andrea is always helpful and helps troubleshoot any problems that you may have in addition to the...I have stayed at this hotel a few times but most recently I had to stay at this hotel while my home was being renovated for an extended period of time. The hotel is very presentable, clean with an adequate breakfast for a 2 Star hotel. Some people try to compare a 2 Star to a 5 Star and it’s not a fair comparison with one exception and that is customer service. I’ve stayed at many from 5 to 2 stars and the hotel’s service can compete with some of the best. The staff is very friendly and accommodating. The MVPs of this great team is Ali and Andrea on the 3 to 11 shift.  I think this shift is one of the most important because it’s when people check-in and get their first impression of your hotel and when people staying extended periods come in from work or their meetings for the day. These two don’t just do bare minimum but go over and beyond to make the guests feel welcome. In the evenings hot, fresh coffee is made and hot water is ready for tea. Twice a week there is a Happy Hour and they always have it out on time and greet you with a smile. That may seem small but is huge after a long day at the office. Andrea is always helpful and helps troubleshoot any problems that you may have in addition to the things mentioned above. Ali is super professional, accommodating and even bakes fresh cookies for guests when available on a quest it seems to exceed expectations. This evening shift gives you rockstar treatment. You won’t be disappointed w/ service at this hotel. They could improve hotel security and add more lights to the dimly lit parking lot. They also have a high staff turn over and could use more blankets and replace towels when they begin to get thin. These are areas for improvement but even with that I would still give the hotel 4.5-4.8 Star rating and recommend this hotel if you need to stay in the Houston/Chinatown area!! MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a few times but most recently I had to stay at this hotel while my home was being renovated for an extended period of time. The hotel is very presentable, clean with an adequate breakfast for a 2 Star hotel. Some people try to compare a 2 Star to a 5 Star and it’s not a fair comparison with one exception and that is customer service. I’ve stayed at many from 5 to 2 stars and the hotel’s service can compete with some of the best. The staff is very friendly and accommodating. The MVPs of this great team is Ali and Andrea on the 3 to 11 shift.  I think this shift is one of the most important because it’s when people check-in and get their first impression of your hotel and when people staying extended periods come in from work or their meetings for the day. These two don’t just do bare minimum but go over and beyond to make the guests feel welcome. In the evenings hot, fresh coffee is made and hot water is ready for tea. Twice a week there is a Happy Hour and they always have it out on time and greet you with a smile. That may seem small but is huge after a long day at the office. Andrea is always helpful and helps troubleshoot any problems that you may have in addition to the...I have stayed at this hotel a few times but most recently I had to stay at this hotel while my home was being renovated for an extended period of time. The hotel is very presentable, clean with an adequate breakfast for a 2 Star hotel. Some people try to compare a 2 Star to a 5 Star and it’s not a fair comparison with one exception and that is customer service. I’ve stayed at many from 5 to 2 stars and the hotel’s service can compete with some of the best. The staff is very friendly and accommodating. The MVPs of this great team is Ali and Andrea on the 3 to 11 shift.  I think this shift is one of the most important because it’s when people check-in and get their first impression of your hotel and when people staying extended periods come in from work or their meetings for the day. These two don’t just do bare minimum but go over and beyond to make the guests feel welcome. In the evenings hot, fresh coffee is made and hot water is ready for tea. Twice a week there is a Happy Hour and they always have it out on time and greet you with a smile. That may seem small but is huge after a long day at the office. Andrea is always helpful and helps troubleshoot any problems that you may have in addition to the things mentioned above. Ali is super professional, accommodating and even bakes fresh cookies for guests when available on a quest it seems to exceed expectations. This evening shift gives you rockstar treatment. You won’t be disappointed w/ service at this hotel. They could improve hotel security and add more lights to the dimly lit parking lot. They also have a high staff turn over and could use more blankets and replace towels when they begin to get thin. These are areas for improvement but even with that I would still give the hotel 4.5-4.8 Star rating and recommend this hotel if you need to stay in the Houston/Chinatown area!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r552286510-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>552286510</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>clean, and comfortable</t>
+  </si>
+  <si>
+    <t>Overnight stay for a business trip. the room was clean, comfortable, and large. The service was good. The breakfast was OK but nothing special. The location good and easy to locate. Overall a good stay.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r549238333-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549238333</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>My flight had been canceled twice and was going to scrap the trip, when I called to cancel the room the desk clerk injected some humor in a bad day and made me smile, and I rechecked with airline and got the trip completed.  The driver from airport understood that when I arrived my day was 18 hrs long and without issue took me to a drive thru to get something to eat.  The clerk got me in quickly and was friendly, The room was clean.  Had lots of power outlets and was comfy.   Hats off to them!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r534728687-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534728687</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Very close to the Houston international airport.  Good spacious clean room.  Hot breakfast included with a good variety.  Very good value for the amount paid for the room.  Highly recommended to those who are looking for a hotel to stay at which is close to the airport.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r485815180-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485815180</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Excellent rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for two nights. Excellent rooms, loads of space and extremely comfortable beds. So the most important things are covered! The reception staff are also very welcoming and helpful. Only let downs for me were: no bar, the breakfast was terrible - reheated fake bacon and eggs (awful awful awful) and the pool is so close to the freeway it's too noisy and unpleasant to enjoy. The rooms are great though so overall a good experience. (The yoghurt/granola and orange juice makes for a nice healthy breakfast!!) </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r470605316-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470605316</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Excellent Homey Stay</t>
+  </si>
+  <si>
+    <t>I highly recommend this beautiful property.  The quiet, homey, all suites accommodations and kind, helpful staff makes this a must stay location in Houston.  General Manager Myriam was especially helpful to return an item I had left in my suite at checkout.  For those of you who may not have given Comfort Suites a try, I recommend you do so.  All rooms have a sitting area with sleeper sofa, in addition to the bedroom area, refrigerator &amp; microwave, full hot breakfast, coffee service 24/7.  This brand is perfect for families and couples making a hotel their home away from home, as we did for several days.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r448081969-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448081969</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>nice place to stay</t>
+  </si>
+  <si>
+    <t>Excellent location, right near Belair.  The room was clean, and the staff was very nice and friendly.  The hotel has small laundry room.  The room was not sound proof.  Our next door was very loud late into the night.  We had to call reception a couple times to ask them quiet down so we can sleep.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r442194249-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442194249</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>fraudulent charges???</t>
+  </si>
+  <si>
+    <t>We stayed there around Nov. 5th and we paid by our American Airline points. When we checked in, we clearly told the front desk people and the owner of the hotel that we paid points,  and yes the owner happened to be there when we checked in. We checked out two days later and we did make sure there were no incidental charges  before we leave. We do this with all the hotels we stay. At the end of the month, when we pay our credit card bills, my husband found out that we were charged about $150 by this hotel days after we left. We contacted AA and the hotel immediately. One day later, we got a call from the manager of the hotel and said they will refund the charges. The manager even tried to hide some of the facts we already know when she called us. I wonder if this is the first time they did this to customers. I hope, it is just us, but I can't be sure. We regularly using points to pay for hotels, and this is definitely the first time double charged like this.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>We stayed there around Nov. 5th and we paid by our American Airline points. When we checked in, we clearly told the front desk people and the owner of the hotel that we paid points,  and yes the owner happened to be there when we checked in. We checked out two days later and we did make sure there were no incidental charges  before we leave. We do this with all the hotels we stay. At the end of the month, when we pay our credit card bills, my husband found out that we were charged about $150 by this hotel days after we left. We contacted AA and the hotel immediately. One day later, we got a call from the manager of the hotel and said they will refund the charges. The manager even tried to hide some of the facts we already know when she called us. I wonder if this is the first time they did this to customers. I hope, it is just us, but I can't be sure. We regularly using points to pay for hotels, and this is definitely the first time double charged like this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r437624890-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437624890</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Stay!!</t>
+  </si>
+  <si>
+    <t>We stayed four nights with several changes on our room reservations.  Lauren was so patient accommodating us and fixed our reservation. She was able to give us discounts on our stay..wonderful!! Thank you. All the other staff were helpful just the same.  We were assisted very well in the breakfast room too. Good breakfast. All our inquiries and questions were answered right a way.  I will come back to stay in this hotel and recommend to our friends.I would like to mention some accessibility issues which I hope would be considered in the future.  I am using a manual wheelchair and I found the bed is too high for me to transfer to.  Lowering the bed would help easy transfer.  Changing floor finish to tiles would provide easy wheelchair maneuvering. A soap dish in the shower stall would help a lot too.Overall, the staff, the location and service made our vacation a great one.  Thank you very much. See you next timeMoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed four nights with several changes on our room reservations.  Lauren was so patient accommodating us and fixed our reservation. She was able to give us discounts on our stay..wonderful!! Thank you. All the other staff were helpful just the same.  We were assisted very well in the breakfast room too. Good breakfast. All our inquiries and questions were answered right a way.  I will come back to stay in this hotel and recommend to our friends.I would like to mention some accessibility issues which I hope would be considered in the future.  I am using a manual wheelchair and I found the bed is too high for me to transfer to.  Lowering the bed would help easy transfer.  Changing floor finish to tiles would provide easy wheelchair maneuvering. A soap dish in the shower stall would help a lot too.Overall, the staff, the location and service made our vacation a great one.  Thank you very much. See you next timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r435710308-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435710308</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Great Stay and Great Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check in was very easy they had everything ready for me when I got to the front desk and Keys already made. Lauren was great and helpful. Gym has everything you will need to get in a good work out and the complementary breakfast was decent and filling.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r429251510-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429251510</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Hotel was fine, but employees not so good</t>
+  </si>
+  <si>
+    <t>The hotel itself was fine. The breakfast was good. All night the other guests were running in the hallway. Hotel breakfast attendant had some opinions about residents in the state we live in, that I didn't appreciate. Hotel employees should understand that people from other states are staying in there and can hear when you share your opinions. In this case he was discussing natural disasters and his belief that people live in coastal areas love being flooded out so they can milk the government of all that free money. I live in an area that has been devastated by hurricanes and I assure you it is not because we get money from anybody. It is our home.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>The hotel itself was fine. The breakfast was good. All night the other guests were running in the hallway. Hotel breakfast attendant had some opinions about residents in the state we live in, that I didn't appreciate. Hotel employees should understand that people from other states are staying in there and can hear when you share your opinions. In this case he was discussing natural disasters and his belief that people live in coastal areas love being flooded out so they can milk the government of all that free money. I live in an area that has been devastated by hurricanes and I assure you it is not because we get money from anybody. It is our home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r425964368-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425964368</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Stayed one night.  For the first time, booked through Trip Advisor's getaroom with no issues.  Check in and out easy.  Even though close to a busy roadway, no noise; however, our room was on the side away from the road.  The room was clean with a comfy bed, coffee maker, microwave and fridge.  Bathroom was clean, but the fan was very loud and could not be turned off.  Ample towels provided (3 of us so sometimes we have to ask for more).  The switch on one side of the bedside lamp was broken and the bedside telephone did not work.  Breakfast was good and kept well stocked, area clean.  The attendant prepared the Texas-shaped waffles for us, which was a nice touch.  Left-leaning paper USA Today was provided.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Stayed one night.  For the first time, booked through Trip Advisor's getaroom with no issues.  Check in and out easy.  Even though close to a busy roadway, no noise; however, our room was on the side away from the road.  The room was clean with a comfy bed, coffee maker, microwave and fridge.  Bathroom was clean, but the fan was very loud and could not be turned off.  Ample towels provided (3 of us so sometimes we have to ask for more).  The switch on one side of the bedside lamp was broken and the bedside telephone did not work.  Breakfast was good and kept well stocked, area clean.  The attendant prepared the Texas-shaped waffles for us, which was a nice touch.  Left-leaning paper USA Today was provided.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r398131917-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398131917</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Happy with hotel Furious with booking through Trip Advisor</t>
+  </si>
+  <si>
+    <t>Last trip I will ever book through Trip Advisor / buyer beware!!Booked my hotel through trip advisor who then books apparently through 3rd party by the name of get a roomLong story short could only stay one day not two , so I call GerardGet A Room  and get a room says tough , you will pay for 2 day cannot Change.Or refund for 1 day that I'm not going to stay for .Call trip advisor and again complain and they cannot-help as well , and they just say tough luck.Moral of the story is I will never book through trip advisor ever again a reservation for anything whatsoever.Live and learn. Beware of smoke and mirrors vs booking direct with a hotel that has scruples and honors your business, and as well deals with changes in your reservation scenarios as a business traveler.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Last trip I will ever book through Trip Advisor / buyer beware!!Booked my hotel through trip advisor who then books apparently through 3rd party by the name of get a roomLong story short could only stay one day not two , so I call GerardGet A Room  and get a room says tough , you will pay for 2 day cannot Change.Or refund for 1 day that I'm not going to stay for .Call trip advisor and again complain and they cannot-help as well , and they just say tough luck.Moral of the story is I will never book through trip advisor ever again a reservation for anything whatsoever.Live and learn. Beware of smoke and mirrors vs booking direct with a hotel that has scruples and honors your business, and as well deals with changes in your reservation scenarios as a business traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r394603703-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394603703</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Awesomeness</t>
+  </si>
+  <si>
+    <t>Andrea was very nice...this hotel is clean and comfy...rooms are excellent... breakfast bar is a plus....we really enjoyed our short stay.... they even have computers and printer that you have access to during your stay...along with stapler,paperclips,pen,and sticky notes...and printing is free...awesomeness...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r392884021-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392884021</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Great place, great value!</t>
+  </si>
+  <si>
+    <t>Right off the loop. A couple great Asian restaurants nearby. Bob's Korean BBQ was great! Room was huge and even had a living area with couch. It was about 10 minutes away from the attractions of Houston, but at the price I paid (less than half of any other place) and rhe room size, this was well worth it. Room overlooked the toll road but I heard no road noise. Can't recommend this place enough. Pool looked fine and several other children were enjoying it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r383488364-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383488364</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean place. Decent price </t>
+  </si>
+  <si>
+    <t>I'd give this place a 4 out of 5 the place itself is very clean and the rooms nice. But it's location is bad. You have to deal with the toll road to go anywhere. That's a pain. Also one night my room key stopped working but the staff fixed that. Free breakfast was decent too. The biggest problems are the thin walls. Room is very noisy at night. I had to turn on the restroom ventilation to drown out the sound of the neighbors. Overall very good but some point deductions for location and noisy rooms MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Myriam F, General Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded June 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2016</t>
+  </si>
+  <si>
+    <t>I'd give this place a 4 out of 5 the place itself is very clean and the rooms nice. But it's location is bad. You have to deal with the toll road to go anywhere. That's a pain. Also one night my room key stopped working but the staff fixed that. Free breakfast was decent too. The biggest problems are the thin walls. Room is very noisy at night. I had to turn on the restroom ventilation to drown out the sound of the neighbors. Overall very good but some point deductions for location and noisy rooms More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r376171456-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376171456</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Welcoming Enviroment</t>
+  </si>
+  <si>
+    <t>When I came in the facility I was greeted very well. It made me feel right at home. The atmosphere felt great. Everything was clean. My room was neat as can be. The rates were great as well. The front desk always had a smile on. Overall a great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>David V, Front Office Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>When I came in the facility I was greeted very well. It made me feel right at home. The atmosphere felt great. Everything was clean. My room was neat as can be. The rates were great as well. The front desk always had a smile on. Overall a great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r375877774-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375877774</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recent Visit </t>
+  </si>
+  <si>
+    <t>I recently came for a corporate meeting with Massage Envy. The front desk staff was exceptional. They treated me as if I was a guest booking a reservation and was attentive to our needs as a company. I would recommend this location for all events. Special acknowledgement to David. He was working the desk upon my arrival and he was very kind. MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently came for a corporate meeting with Massage Envy. The front desk staff was exceptional. They treated me as if I was a guest booking a reservation and was attentive to our needs as a company. I would recommend this location for all events. Special acknowledgement to David. He was working the desk upon my arrival and he was very kind. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r372479856-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>372479856</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel!!</t>
+  </si>
+  <si>
+    <t>I am very impressed by the operation of this hotel. The staff here is very friendly and personable and the rooms are spotless clean! I was traveling for a business trip and the company booked me here for a three night stay. I would definitely will be making another trip here when around the area. The hotel was awesome.MoreShow less</t>
+  </si>
+  <si>
+    <t>David V, Front Office Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>I am very impressed by the operation of this hotel. The staff here is very friendly and personable and the rooms are spotless clean! I was traveling for a business trip and the company booked me here for a three night stay. I would definitely will be making another trip here when around the area. The hotel was awesome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r369391352-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369391352</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We recently stayed at Comfort Suites West on Beltway 8.  What a great hotel!  The check-in was friendly and efficient.  The lobby was large and clean.  The room was large with king bed, sofa, desk, table, microwave, fridge, flat screen TV.  The bathroom was good size and clean.  We had a top floor room with a view toward the beltway toll road, but it was far enough back to be quiet.  The breakfast consisted of scrambled eggs, bacon, toast, muffins, and other choices.  There was no waffles or microwave.  The breakfast area was nice and pleasant.  The location is next to the Sam Houston Tollway, it seems to be a very nice area.  It is about 1 mile from Houston Chinatown where we drove to have dinner.  Check-out was very good, especially David at the front desk.  Overall, this is an excellent hotel.  Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>David V, Front Office Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded May 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2016</t>
+  </si>
+  <si>
+    <t>We recently stayed at Comfort Suites West on Beltway 8.  What a great hotel!  The check-in was friendly and efficient.  The lobby was large and clean.  The room was large with king bed, sofa, desk, table, microwave, fridge, flat screen TV.  The bathroom was good size and clean.  We had a top floor room with a view toward the beltway toll road, but it was far enough back to be quiet.  The breakfast consisted of scrambled eggs, bacon, toast, muffins, and other choices.  There was no waffles or microwave.  The breakfast area was nice and pleasant.  The location is next to the Sam Houston Tollway, it seems to be a very nice area.  It is about 1 mile from Houston Chinatown where we drove to have dinner.  Check-out was very good, especially David at the front desk.  Overall, this is an excellent hotel.  Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r366220601-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>366220601</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel and excellent service!</t>
+  </si>
+  <si>
+    <t>I stayed 4 nights, very friendly and helpful staff. The first 24 hours was during the Houston flooding this week. The hotel is new and superb! Even though it's close to the interstate, the soundproof windows protect you from the noise. Complementary beer/wine on Tuesday/Wednesday is a nice compliment. I give this hotel 5 stars!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed 4 nights, very friendly and helpful staff. The first 24 hours was during the Houston flooding this week. The hotel is new and superb! Even though it's close to the interstate, the soundproof windows protect you from the noise. Complementary beer/wine on Tuesday/Wednesday is a nice compliment. I give this hotel 5 stars!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r358296931-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358296931</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Warm cozy surprise</t>
+  </si>
+  <si>
+    <t>This hotel was a find on our Houston Livestock and Rodeo visit. A warm friendly staff and great rooms, we added another day to our reservation on the spot. They even take the trouble to move around the breakfast setup to freshen daily experience.Located on the Sam Houston beltway and close to highway 59 it is convenient enough to go everywhere and specially very close to Chinatown dining as well as near top restaurants and shopping within 3-4 milesMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>David V, Front Office Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was a find on our Houston Livestock and Rodeo visit. A warm friendly staff and great rooms, we added another day to our reservation on the spot. They even take the trouble to move around the breakfast setup to freshen daily experience.Located on the Sam Houston beltway and close to highway 59 it is convenient enough to go everywhere and specially very close to Chinatown dining as well as near top restaurants and shopping within 3-4 milesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r357799078-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357799078</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Very good customer service!</t>
+  </si>
+  <si>
+    <t>Very good service at front desk, I think the person's name was David. Very clean, and beds are super comfortable. My family and I had a pleasant stay there, def. We would choose that location again. We had stay in others suites and the attention is not the same. MoreShow less</t>
+  </si>
+  <si>
+    <t>Very good service at front desk, I think the person's name was David. Very clean, and beds are super comfortable. My family and I had a pleasant stay there, def. We would choose that location again. We had stay in others suites and the attention is not the same. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r357571279-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357571279</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>decent place to overnight near chinatown</t>
+  </si>
+  <si>
+    <t>The service at the front desk was friendly, and hotel was comfortable and clean with an average hotel. The doors of the room, however, don't latch properly unless pulled closed violently, so the hallways could get a bit loud.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>The service at the front desk was friendly, and hotel was comfortable and clean with an average hotel. The doors of the room, however, don't latch properly unless pulled closed violently, so the hallways could get a bit loud.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r355090397-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355090397</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>An oasis</t>
+  </si>
+  <si>
+    <t>Pleasant staff, great room. Property in excellent condition. Safe area, parking ok. There is no reason not to stay at this property. I'll be back.Especially like the little things like sleep timer on the tv remote. Bed out of this world and nice finishings in the bath area. Breakfast is standard but very sufficient.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r354419511-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354419511</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>Hotel stay was awesome!</t>
+  </si>
+  <si>
+    <t>My hotel stay was one of the best. The kids really enjoyed it and wants to go back. The room was very comfortable and clean. The breakfast was awesome. The check-in process was quick. The staff was very nice and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r352420569-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352420569</t>
+  </si>
+  <si>
+    <t>03/02/2016</t>
+  </si>
+  <si>
+    <t>The Best Place To Stay</t>
+  </si>
+  <si>
+    <t>I wouldn't stay anywhere else! Myriam, David, Lizet and Will are the best hotel personel ever. They are professional and their customer service skills are A-1!The excellent housekeeping staff keeps the rooms clean and neat. The breakfast and breakfast area is great and always kept up. My children and I feel safe and welcome all the time at this hotel. All the amenities are up to par such as the free WIFI. Staying anywhere else would be a waste of your much needed hard earned money. You will be pleased here at this location. Rushandra ZackeryMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>David V, Front Office Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>I wouldn't stay anywhere else! Myriam, David, Lizet and Will are the best hotel personel ever. They are professional and their customer service skills are A-1!The excellent housekeeping staff keeps the rooms clean and neat. The breakfast and breakfast area is great and always kept up. My children and I feel safe and welcome all the time at this hotel. All the amenities are up to par such as the free WIFI. Staying anywhere else would be a waste of your much needed hard earned money. You will be pleased here at this location. Rushandra ZackeryMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r350652375-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350652375</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Les Aitken</t>
+  </si>
+  <si>
+    <t>The room was wonderful,the breakfast was great.   The morning Marion is one of a kind.. When we checked we were in a rush,checking the room.  When we got home  late afternoon we discovered we had left my shot case and everything in it in the refrigerate.. I called back to the suites and explained my situation and she immediate asked what she could do to help us and I explained everything and she said let me see what we can do,after checking with the Manager Marion said they could help.and put in the mail,so we can't say enough about the help at 7707 Southwest Frwy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r349737219-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349737219</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and Convenient to Asian town etc </t>
+  </si>
+  <si>
+    <t>This was our 4th stay here. Very nice, clean and front desk and breakfast staff always very nice. David was our man on duty. He made sure our room was in a quiet location and even got us an upgrade.  Our only disappointment this time was we left some unopened food and a nice bottle of port in the mini fridge. I know, our own mistake, but when we called to see if they still had them less than 2 hours after checkout, David said the cleaning staff said the items were no where to be found. Not surprised, but disappointed. Recommend the place, just make sure you do a better job of checking everything when you check out than we did. Your stuff will be " no where to be found." MoreShow less</t>
+  </si>
+  <si>
+    <t>This was our 4th stay here. Very nice, clean and front desk and breakfast staff always very nice. David was our man on duty. He made sure our room was in a quiet location and even got us an upgrade.  Our only disappointment this time was we left some unopened food and a nice bottle of port in the mini fridge. I know, our own mistake, but when we called to see if they still had them less than 2 hours after checkout, David said the cleaning staff said the items were no where to be found. Not surprised, but disappointed. Recommend the place, just make sure you do a better job of checking everything when you check out than we did. Your stuff will be " no where to be found." More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r345578497-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345578497</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>Great place, great stay, great staff!</t>
+  </si>
+  <si>
+    <t>My wife and I traveled to Houston from Costa Rica for a weeks stay.  I had checked various Choice properties and this facility had top marks and now we see why.  Friendly and efficient staff, good Wi-Fi, large flat screen TV, new property clean and comfortable.  Complementary breakfast got us started off right every morning.  The hotel has a fantastic exercise room with Pro equipment.  For us the location provided us the perfect jumping off point for all we wanted to do around Houston.  To management and staff, thanks, job well done!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>David V, Front Office Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded February 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I traveled to Houston from Costa Rica for a weeks stay.  I had checked various Choice properties and this facility had top marks and now we see why.  Friendly and efficient staff, good Wi-Fi, large flat screen TV, new property clean and comfortable.  Complementary breakfast got us started off right every morning.  The hotel has a fantastic exercise room with Pro equipment.  For us the location provided us the perfect jumping off point for all we wanted to do around Houston.  To management and staff, thanks, job well done!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r338573286-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>338573286</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>High quality</t>
+  </si>
+  <si>
+    <t>This place is well worth the price.  The building is new,  the girls up front were very nice and everything was clean. This place has some of the upper priced spots amenities but for not much more than a motelMoreShow less</t>
+  </si>
+  <si>
+    <t>David V, Front Office Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded January 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2016</t>
+  </si>
+  <si>
+    <t>This place is well worth the price.  The building is new,  the girls up front were very nice and everything was clean. This place has some of the upper priced spots amenities but for not much more than a motelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r336935333-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>336935333</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>The drain in the bathtub was very slow.</t>
+  </si>
+  <si>
+    <t>We stayed 3 consecutive nights at the hotel.  Last year, we stayed at the same hotel.  We arrived hotel before dinner.  The front desk person was busy helping a guest before us, so we waited.  After that guest left, he had to take a call on his cell phone.  We waited good 10 minutes for him to finish his talking on cell phone,  Our room was clean upon arrival.  We liked the pull out sofa bed, so we didn't have to share bed.  The place wasn't as new as last year, since it went through wear and tear of whole year.  We were disappointed to get very slow draining bathtub.  I had to turn my shower to the lowest luke warm water, or to keep on turning off the water to wait for it to drain.  Didn't enjoy taking shower on that part.  Overall, just average experience this time (unlike last year's).  Breakfast was also just average.  Nothing special or tasty to me.  One more thing, we could hear kids' running foot steps above us, since we stayed at 1st level, and baby crying next door was loud.  FYI.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>We stayed 3 consecutive nights at the hotel.  Last year, we stayed at the same hotel.  We arrived hotel before dinner.  The front desk person was busy helping a guest before us, so we waited.  After that guest left, he had to take a call on his cell phone.  We waited good 10 minutes for him to finish his talking on cell phone,  Our room was clean upon arrival.  We liked the pull out sofa bed, so we didn't have to share bed.  The place wasn't as new as last year, since it went through wear and tear of whole year.  We were disappointed to get very slow draining bathtub.  I had to turn my shower to the lowest luke warm water, or to keep on turning off the water to wait for it to drain.  Didn't enjoy taking shower on that part.  Overall, just average experience this time (unlike last year's).  Breakfast was also just average.  Nothing special or tasty to me.  One more thing, we could hear kids' running foot steps above us, since we stayed at 1st level, and baby crying next door was loud.  FYI.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r327910545-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327910545</t>
+  </si>
+  <si>
+    <t>11/19/2015</t>
+  </si>
+  <si>
+    <t>Will Return: Great Service</t>
+  </si>
+  <si>
+    <t>I had never stayed at a Comfort Suites. A colleague recommended this location because of the convenience to meetings. The hotel was more than acceptable in terms of amenities--and it was spotless. What really set it apart was the extraordinary service I received upon arrival. Lizet and Myriam provided incredible service and I will certainly return.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Myriam F, General Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded November 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2015</t>
+  </si>
+  <si>
+    <t>I had never stayed at a Comfort Suites. A colleague recommended this location because of the convenience to meetings. The hotel was more than acceptable in terms of amenities--and it was spotless. What really set it apart was the extraordinary service I received upon arrival. Lizet and Myriam provided incredible service and I will certainly return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r324867155-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324867155</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>better than I expected for such a great price! The weekend I went, there was a hurricane warning so I didn't really get to explore around but it's in a great location. I accidentally booked a handicap room but the lady at the front desk fixed it and even gave me a upgraded room for no extra cost. They have wonderful customer service. MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, General Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2015</t>
+  </si>
+  <si>
+    <t>better than I expected for such a great price! The weekend I went, there was a hurricane warning so I didn't really get to explore around but it's in a great location. I accidentally booked a handicap room but the lady at the front desk fixed it and even gave me a upgraded room for no extra cost. They have wonderful customer service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r323535880-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323535880</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>Good nice clean hotel</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights.  The staff was helpful and friendly and the rooms were clean.  The rooms have the usual window air conditioner, but a wall thermostat that worked well to cool the room.  The area looks relatively quiet.  This hotel is close to Houston's Chinatown.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights.  The staff was helpful and friendly and the rooms were clean.  The rooms have the usual window air conditioner, but a wall thermostat that worked well to cool the room.  The area looks relatively quiet.  This hotel is close to Houston's Chinatown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r321052580-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321052580</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>getaway with my hubby</t>
+  </si>
+  <si>
+    <t>Staff was friendly. The rooms were spacious and clean. The breakfast was cool,made my own Texas shaped waffle. Loved the hotel just not the location but it was really nice and i had alot of fun with hubby.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Staff was friendly. The rooms were spacious and clean. The breakfast was cool,made my own Texas shaped waffle. Loved the hotel just not the location but it was really nice and i had alot of fun with hubby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r305948886-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>305948886</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Lovely hotel</t>
+  </si>
+  <si>
+    <t>Room was excellent - there was a separate seating area which made it all feel very spacious. Shower was good and housekeeping was excellent and very efficient. There is a good hot breakfast which is kept well-stocked. Pool was small but a welcome respite from the heat. Front desk staff were super helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded September 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2015</t>
+  </si>
+  <si>
+    <t>Room was excellent - there was a separate seating area which made it all feel very spacious. Shower was good and housekeeping was excellent and very efficient. There is a good hot breakfast which is kept well-stocked. Pool was small but a welcome respite from the heat. Front desk staff were super helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r301545629-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301545629</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>Talk about a nice place to stay!</t>
+  </si>
+  <si>
+    <t>Stayed here one night on visit with my friends and then onto San Antonio. I only wish I could have taken this hotel along with me. The room was extremely large, could have slept 5 comfortably. The bed sheets were smooth like silk, the pillows larger so did not have to double several in order to sleep well. I was extremely pleased with my stay and could not have wished for more. Did not stay for breakfast, just some coffee for leaving out. Thanks Comfort Suites!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here one night on visit with my friends and then onto San Antonio. I only wish I could have taken this hotel along with me. The room was extremely large, could have slept 5 comfortably. The bed sheets were smooth like silk, the pillows larger so did not have to double several in order to sleep well. I was extremely pleased with my stay and could not have wished for more. Did not stay for breakfast, just some coffee for leaving out. Thanks Comfort Suites!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r300283706-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>300283706</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Great/excellent hotel.</t>
+  </si>
+  <si>
+    <t>the room was large. Bed was comfortable. Room was very very clean.  TV setup was great. The couch was comfy. Breakfast was a great start for the day with waffles eggs bacon sausage Danish and more. I loved the service. The staff was very friendly and helpful. I would definitely stay there again next time I visit HoustonMoreShow less</t>
+  </si>
+  <si>
+    <t>the room was large. Bed was comfortable. Room was very very clean.  TV setup was great. The couch was comfy. Breakfast was a great start for the day with waffles eggs bacon sausage Danish and more. I loved the service. The staff was very friendly and helpful. I would definitely stay there again next time I visit HoustonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r295139741-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295139741</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy with 2 night stay </t>
+  </si>
+  <si>
+    <t>Nice, friendly staff. Hotel is clean and well taken care of. After an 18 hour drive trough the south I was happy to lay on a clean comfy bed. I would stay there again when visiting Houston the only inconvenience was the toll road near it to and from downtown Houston. Not very convenient  if your not familiar with the tolls like we where not. That side of town was calm, quiet and seemed over all safe not far from different fast food, or stores. Loved the room layout with a double ed, sofa bed and vert spacious room. Would defiantly recommend it to friends and family. 6 year old daughter and husband went in the pool it was clean and well maintained they seemed to enjoy it very much; they even got there picture taken for the hotel website :). MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Nice, friendly staff. Hotel is clean and well taken care of. After an 18 hour drive trough the south I was happy to lay on a clean comfy bed. I would stay there again when visiting Houston the only inconvenience was the toll road near it to and from downtown Houston. Not very convenient  if your not familiar with the tolls like we where not. That side of town was calm, quiet and seemed over all safe not far from different fast food, or stores. Loved the room layout with a double ed, sofa bed and vert spacious room. Would defiantly recommend it to friends and family. 6 year old daughter and husband went in the pool it was clean and well maintained they seemed to enjoy it very much; they even got there picture taken for the hotel website :). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r293932977-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293932977</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Pleasant stay with friendly staff</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel. It was quiet and appeared well cared for by the staff. Lupe was at the desk each day we were there and was very helpful with information and directions. The one problem I had was with the location. The West Parkway, which is the quickest way to and from the hotel from downtown Houston, is a toll road that is only supposed to be accessed by drivers with an EZtag. We did not understand this when we drove to the hotel so we used this road. I asked Lupe about it when we arrived at the hotel and she gave me the number of the company that collects the tolls so I could call and pay the $1.45 over the phone. Otherwise the bill would have been sent to my home with an $11 service charge! The Sam Houston Parkway that runs in front of the hotel is also a toll road but it can be used by anyone. If I had known about the toll roads ahead of time, I probably would have stayed at a Comfort Suites on the East side of Houston instead. If you don't mind paying tolls or driving on local roads to avoid paying, then this is a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel. It was quiet and appeared well cared for by the staff. Lupe was at the desk each day we were there and was very helpful with information and directions. The one problem I had was with the location. The West Parkway, which is the quickest way to and from the hotel from downtown Houston, is a toll road that is only supposed to be accessed by drivers with an EZtag. We did not understand this when we drove to the hotel so we used this road. I asked Lupe about it when we arrived at the hotel and she gave me the number of the company that collects the tolls so I could call and pay the $1.45 over the phone. Otherwise the bill would have been sent to my home with an $11 service charge! The Sam Houston Parkway that runs in front of the hotel is also a toll road but it can be used by anyone. If I had known about the toll roads ahead of time, I probably would have stayed at a Comfort Suites on the East side of Houston instead. If you don't mind paying tolls or driving on local roads to avoid paying, then this is a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r292618842-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292618842</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Visiting Friends</t>
+  </si>
+  <si>
+    <t>Hotel was clean and staff friendly. Surrounding residential area is not an area that I enjoyed driving through. Located on a well traveled expressway which made for an easy in and out. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Hotel was clean and staff friendly. Surrounding residential area is not an area that I enjoyed driving through. Located on a well traveled expressway which made for an easy in and out. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r289386657-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289386657</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Pics are not photoshopped</t>
+  </si>
+  <si>
+    <t>Stayed for several days while on family vacation. High expectations given the Comfort Suites we stayed at in Dallas. PROs: rooms are new &amp; spacious, nice decor, free breakfast, free parking, all suites (microwave, fridge, coffee pot) w/separate living area, large HDTV, quiet even though right next to highway. 
+CONS: beds are hard, breakfast   fair at best, room fridge did not keep cold; if coming thru town, have to drive through sketchy area - there was a shooting at a convenience store less than two miles from the hotel on the day of my arrival (reportedly robbed several weeks earlier); Housekeeping. Where do I start? On day one there was someone else's hair on a washcloth, day two a wet washcloth was left on the counter after they "cleaned"; day three the filled trash bag was left on the floor next to the trash can, a blue cleaning rag was left on the bed, the silver decorative kleenex cover was left on the couch. Coffee was not replaced to keep stock at base level, tv was left on each day we returned, and iron was full of water - even from day 1 of use. I realize the hotel is a 2 star - I shouldn't  expect a robe in the closet,or  texts from  staff asking how they can make my stay more pleasurable, however, basic housekeeping IS an expectation. I only mention the shooting so people are aware of...Stayed for several days while on family vacation. High expectations given the Comfort Suites we stayed at in Dallas. PROs: rooms are new &amp; spacious, nice decor, free breakfast, free parking, all suites (microwave, fridge, coffee pot) w/separate living area, large HDTV, quiet even though right next to highway. CONS: beds are hard, breakfast   fair at best, room fridge did not keep cold; if coming thru town, have to drive through sketchy area - there was a shooting at a convenience store less than two miles from the hotel on the day of my arrival (reportedly robbed several weeks earlier); Housekeeping. Where do I start? On day one there was someone else's hair on a washcloth, day two a wet washcloth was left on the counter after they "cleaned"; day three the filled trash bag was left on the floor next to the trash can, a blue cleaning rag was left on the bed, the silver decorative kleenex cover was left on the couch. Coffee was not replaced to keep stock at base level, tv was left on each day we returned, and iron was full of water - even from day 1 of use. I realize the hotel is a 2 star - I shouldn't  expect a robe in the closet,or  texts from  staff asking how they can make my stay more pleasurable, however, basic housekeeping IS an expectation. I only mention the shooting so people are aware of the caliber of neighborhood nearby. My room window faced an empty store lot parking area.  I did feel more "secure" being able to park in front of the hotel's security camera. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for several days while on family vacation. High expectations given the Comfort Suites we stayed at in Dallas. PROs: rooms are new &amp; spacious, nice decor, free breakfast, free parking, all suites (microwave, fridge, coffee pot) w/separate living area, large HDTV, quiet even though right next to highway. 
+CONS: beds are hard, breakfast   fair at best, room fridge did not keep cold; if coming thru town, have to drive through sketchy area - there was a shooting at a convenience store less than two miles from the hotel on the day of my arrival (reportedly robbed several weeks earlier); Housekeeping. Where do I start? On day one there was someone else's hair on a washcloth, day two a wet washcloth was left on the counter after they "cleaned"; day three the filled trash bag was left on the floor next to the trash can, a blue cleaning rag was left on the bed, the silver decorative kleenex cover was left on the couch. Coffee was not replaced to keep stock at base level, tv was left on each day we returned, and iron was full of water - even from day 1 of use. I realize the hotel is a 2 star - I shouldn't  expect a robe in the closet,or  texts from  staff asking how they can make my stay more pleasurable, however, basic housekeeping IS an expectation. I only mention the shooting so people are aware of...Stayed for several days while on family vacation. High expectations given the Comfort Suites we stayed at in Dallas. PROs: rooms are new &amp; spacious, nice decor, free breakfast, free parking, all suites (microwave, fridge, coffee pot) w/separate living area, large HDTV, quiet even though right next to highway. CONS: beds are hard, breakfast   fair at best, room fridge did not keep cold; if coming thru town, have to drive through sketchy area - there was a shooting at a convenience store less than two miles from the hotel on the day of my arrival (reportedly robbed several weeks earlier); Housekeeping. Where do I start? On day one there was someone else's hair on a washcloth, day two a wet washcloth was left on the counter after they "cleaned"; day three the filled trash bag was left on the floor next to the trash can, a blue cleaning rag was left on the bed, the silver decorative kleenex cover was left on the couch. Coffee was not replaced to keep stock at base level, tv was left on each day we returned, and iron was full of water - even from day 1 of use. I realize the hotel is a 2 star - I shouldn't  expect a robe in the closet,or  texts from  staff asking how they can make my stay more pleasurable, however, basic housekeeping IS an expectation. I only mention the shooting so people are aware of the caliber of neighborhood nearby. My room window faced an empty store lot parking area.  I did feel more "secure" being able to park in front of the hotel's security camera. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r288561575-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288561575</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Very nice new hotel at a great rate!</t>
+  </si>
+  <si>
+    <t>This is a very nice new hotel on the west side of Houston. It had a great rate making it a great value! The hotel still smells like new and isn't worn down at all. It has a nice pool and dining area. You can get to it via the frontage roads without using the toll road. The only negative about this hotel is the sound proofing of the room doors. While walking in the hall you can hear people's conversations they're having in their rooms. I think they could have done a better job with sound proofing being that this hotel is so nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very nice new hotel on the west side of Houston. It had a great rate making it a great value! The hotel still smells like new and isn't worn down at all. It has a nice pool and dining area. You can get to it via the frontage roads without using the toll road. The only negative about this hotel is the sound proofing of the room doors. While walking in the hall you can hear people's conversations they're having in their rooms. I think they could have done a better job with sound proofing being that this hotel is so nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r288515698-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288515698</t>
+  </si>
+  <si>
+    <t>Weekend Trip</t>
+  </si>
+  <si>
+    <t>We stayed 4th of July weekend. Hotel was clean and staff was friendly. Only suggestion would be to add another waffle maker. On weekends it gets backed up with a long wait. We would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed 4th of July weekend. Hotel was clean and staff was friendly. Only suggestion would be to add another waffle maker. On weekends it gets backed up with a long wait. We would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r283130879-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283130879</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>This was a great place to stay. Quick access to main highways to get around town. Many places close by to choose from for dinner. Very safe location clean rooms with great amenities. Received great service from the staff and if you like to run, great running park less than 3/4 of mile from hotel. Great little restaurant called Marin's close by was outstanding!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2015</t>
+  </si>
+  <si>
+    <t>This was a great place to stay. Quick access to main highways to get around town. Many places close by to choose from for dinner. Very safe location clean rooms with great amenities. Received great service from the staff and if you like to run, great running park less than 3/4 of mile from hotel. Great little restaurant called Marin's close by was outstanding!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r282459374-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282459374</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Very nice...</t>
+  </si>
+  <si>
+    <t>Clean family friendly environment and accommodates all of my wants and needs. The staff have positive attitudes. I wish that I could have stayed longer but I will definitely come back. I would recommend this hotel to everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean family friendly environment and accommodates all of my wants and needs. The staff have positive attitudes. I wish that I could have stayed longer but I will definitely come back. I would recommend this hotel to everyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r280918564-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280918564</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Really good value for Houston! We stayed here as my husband was having surgery the next day. Check in was very fast and efficient and the staff were very helpful. When we got to our room we were very surprised at how well thought out it was! The decor was very pleasing and all new furniture etc as the hotel is very new. Loved the bathroom and shower area as it was a proper walk in shower! The bed was very comfortable and a choice of hard or soft pillows which I liked. All in all I would really recommend this hotel to anyone who doesn't want to be in the centre of Houston as it is out the way a bit. There are a few places nearby tho and there are some restaurants that deliver to your room which we did. Good experience and quick check in/ outMoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded June 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2015</t>
+  </si>
+  <si>
+    <t>Really good value for Houston! We stayed here as my husband was having surgery the next day. Check in was very fast and efficient and the staff were very helpful. When we got to our room we were very surprised at how well thought out it was! The decor was very pleasing and all new furniture etc as the hotel is very new. Loved the bathroom and shower area as it was a proper walk in shower! The bed was very comfortable and a choice of hard or soft pillows which I liked. All in all I would really recommend this hotel to anyone who doesn't want to be in the centre of Houston as it is out the way a bit. There are a few places nearby tho and there are some restaurants that deliver to your room which we did. Good experience and quick check in/ outMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r278299538-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278299538</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Best value in Houston?</t>
+  </si>
+  <si>
+    <t>Trip Advisor recommended this hotel as the #1 value in Houston. We agree. With a new building, pleasant staff, clean rooms, and a good location, this is likely one of (if not the) best place to stay for the money in Houston. The breakfast had plenty of options, the fitness center a variety of new equipment, and the suites were spacious. Have stayed in rooms for twice the price that were just as nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded June 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2015</t>
+  </si>
+  <si>
+    <t>Trip Advisor recommended this hotel as the #1 value in Houston. We agree. With a new building, pleasant staff, clean rooms, and a good location, this is likely one of (if not the) best place to stay for the money in Houston. The breakfast had plenty of options, the fitness center a variety of new equipment, and the suites were spacious. Have stayed in rooms for twice the price that were just as nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r278264506-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278264506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent </t>
+  </si>
+  <si>
+    <t>Booked this hotel on the road from a long drive from Florida,  just needed a night to stay and rest. Hotel is fairly  new ,still smelled new. Beautiful hotel ,room was spacious, clean. Pool looked awesome at night it lighted up different  colors,to bad it was to late to get in and to bad we couldn't stay longer. I recommend this hotel if you are visiting the Houston area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked this hotel on the road from a long drive from Florida,  just needed a night to stay and rest. Hotel is fairly  new ,still smelled new. Beautiful hotel ,room was spacious, clean. Pool looked awesome at night it lighted up different  colors,to bad it was to late to get in and to bad we couldn't stay longer. I recommend this hotel if you are visiting the Houston area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r277628498-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277628498</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Good and the bad</t>
+  </si>
+  <si>
+    <t>I was very pleased with this hotel. Everything was clean and updated to a very modern decor. The staff was pleasant while checking in and refreshing the items available for breakfast. There is also plenty of parking. On the bad side the WiFi is spotty at best and can not be counted on. The doors are not very sound proof, as demonstrated by the group of drunk girls that came in at 3am, yelling, phones ringing and doors slamming until they went to sleep finally. The only off putting thing was the lobby bathroom smelled really really bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very pleased with this hotel. Everything was clean and updated to a very modern decor. The staff was pleasant while checking in and refreshing the items available for breakfast. There is also plenty of parking. On the bad side the WiFi is spotty at best and can not be counted on. The doors are not very sound proof, as demonstrated by the group of drunk girls that came in at 3am, yelling, phones ringing and doors slamming until they went to sleep finally. The only off putting thing was the lobby bathroom smelled really really bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r273980753-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273980753</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>STUNNING  value for money....SUPERB!</t>
+  </si>
+  <si>
+    <t>My partner and I booked this Hotel on the last night of our vacation before flying back to the UK. The reviews were positive on Trip Advisor so we decided to book. We have never stayed at a 'Comfort Suites' Hotel before therefore we were a little anxious in terms of the standard of accommodation. We needn't have worried as this Hotel is EXCELLENT in every way. Newly built, spacious bedroom and shower room, tastefully decorated throughout, good breakfast..... Incredible value for $80 plus tax!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded May 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2015</t>
+  </si>
+  <si>
+    <t>My partner and I booked this Hotel on the last night of our vacation before flying back to the UK. The reviews were positive on Trip Advisor so we decided to book. We have never stayed at a 'Comfort Suites' Hotel before therefore we were a little anxious in terms of the standard of accommodation. We needn't have worried as this Hotel is EXCELLENT in every way. Newly built, spacious bedroom and shower room, tastefully decorated throughout, good breakfast..... Incredible value for $80 plus tax!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r270949674-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270949674</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Stayed  here many times and keep repeating .</t>
+  </si>
+  <si>
+    <t>The hotel stands out as it is managed efficiently . Some competitors need to take a tutorial of what their providing here at this hotel and what the staff is doing right.A smile at check in , very clean and comfortable suite ,  good showers and a great breakfast in the morning which is complimentary.Clean , Clean is what I like with a comfortable bed and hot shower .  I can't ask  for anything more  while on the road .Great quality with a competitive price and safe area in which you feel secure .Thumbs upMoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>The hotel stands out as it is managed efficiently . Some competitors need to take a tutorial of what their providing here at this hotel and what the staff is doing right.A smile at check in , very clean and comfortable suite ,  good showers and a great breakfast in the morning which is complimentary.Clean , Clean is what I like with a comfortable bed and hot shower .  I can't ask  for anything more  while on the road .Great quality with a competitive price and safe area in which you feel secure .Thumbs upMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r267812344-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267812344</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>The Best</t>
+  </si>
+  <si>
+    <t>Really impressed by this hotel. Amazing room, lots of room, huge shower, very comfortable beds, very clean, front desk very nice. I've stayed at 4star hotels that were this nice. Affordable senior rate too. Allowed us to check out at 12:30 so we would not be too early for family party at 2:00p. Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded April 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2015</t>
+  </si>
+  <si>
+    <t>Really impressed by this hotel. Amazing room, lots of room, huge shower, very comfortable beds, very clean, front desk very nice. I've stayed at 4star hotels that were this nice. Affordable senior rate too. Allowed us to check out at 12:30 so we would not be too early for family party at 2:00p. Highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r266827002-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266827002</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Exploring Texas</t>
+  </si>
+  <si>
+    <t>My husband and I were on a 2 week vacation trip around Texas. We moved around the state and stayed in several hotels. We try to find places that are not too expensive in order suit our budget. I Houston we stayed at this Comfort Suites. It had everything one would need for "comfort". Comfortable Bed fridge, coffee maker, microwave, great  breakfast and most importantly nice staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I were on a 2 week vacation trip around Texas. We moved around the state and stayed in several hotels. We try to find places that are not too expensive in order suit our budget. I Houston we stayed at this Comfort Suites. It had everything one would need for "comfort". Comfortable Bed fridge, coffee maker, microwave, great  breakfast and most importantly nice staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r266343638-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266343638</t>
+  </si>
+  <si>
+    <t>04/17/2015</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>Super clean (it's new) with great modern decor.  The rooms are big and comfortable and quiet - at least both of the 2 we stayed in were.  We made a reservation for one night and left with the intention of heading to Dallas for the next night - plans changed so we decided to go back to this really great hotel for a 2nd night.  All the staff we encountered was super friendly, the breakfast was great and the price was fantastic for a hotel of this quality.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Super clean (it's new) with great modern decor.  The rooms are big and comfortable and quiet - at least both of the 2 we stayed in were.  We made a reservation for one night and left with the intention of heading to Dallas for the next night - plans changed so we decided to go back to this really great hotel for a 2nd night.  All the staff we encountered was super friendly, the breakfast was great and the price was fantastic for a hotel of this quality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r266280150-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266280150</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>We've stayed here in the past and still enjoy staying here! We stayed two nights. David, Myriam and Lupe all assisted us during our stay and they went above &amp; beyond for us. Thank you! The housekeeping staff was friendly and thorough. Clean, spacious room!  We'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>We've stayed here in the past and still enjoy staying here! We stayed two nights. David, Myriam and Lupe all assisted us during our stay and they went above &amp; beyond for us. Thank you! The housekeeping staff was friendly and thorough. Clean, spacious room!  We'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r260751333-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260751333</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Very happy with our stay!!</t>
+  </si>
+  <si>
+    <t>I loved our stay at this hotel. We were in room 306. I had originally booked a king size bed but needed to change it to a double bed room. The front desk was very accommodating. They were actually sold out of the double bed rooms on the last night of our stay but the front desk called and found someone who didn't need the double room and so we didn't have to end up moving. The room was very clean as well as the bathroom. The beds were super comfy. The breakfast each morning was awesome with lots of different options. Will def stay here again the next time we are in Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded March 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2015</t>
+  </si>
+  <si>
+    <t>I loved our stay at this hotel. We were in room 306. I had originally booked a king size bed but needed to change it to a double bed room. The front desk was very accommodating. They were actually sold out of the double bed rooms on the last night of our stay but the front desk called and found someone who didn't need the double room and so we didn't have to end up moving. The room was very clean as well as the bathroom. The beds were super comfy. The breakfast each morning was awesome with lots of different options. Will def stay here again the next time we are in Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r260344866-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260344866</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Great Choce!</t>
+  </si>
+  <si>
+    <t>I had a choice to stay at a few hotels around where I was assigned to work but I am glad I choose Comfort Suites. I had stayed in one before so I know they are very accommodating and this one was no exception. The rooms were clean, spacious and comfortable. I like having plenty of counter space in the bathroom. The one thing I would suggest would be to have a sink stopper and a separate fan switch. Whenever you turn the light on in the bathroom the fan automatically stays on the whole time. The breakfast area had a nice selection with fresh fruit and healthy choices besides the normal eggs and bacon. They even serve wine and beer on Tuesday and Wednesday with very light snacks. The fitness room was perfect for my workout needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded March 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2015</t>
+  </si>
+  <si>
+    <t>I had a choice to stay at a few hotels around where I was assigned to work but I am glad I choose Comfort Suites. I had stayed in one before so I know they are very accommodating and this one was no exception. The rooms were clean, spacious and comfortable. I like having plenty of counter space in the bathroom. The one thing I would suggest would be to have a sink stopper and a separate fan switch. Whenever you turn the light on in the bathroom the fan automatically stays on the whole time. The breakfast area had a nice selection with fresh fruit and healthy choices besides the normal eggs and bacon. They even serve wine and beer on Tuesday and Wednesday with very light snacks. The fitness room was perfect for my workout needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r256804352-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256804352</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>Good hotel and best value for money</t>
+  </si>
+  <si>
+    <t>We were travelling from London and stayed at Comfort Suites 3 nights while waiting for our cruise ship. The hotel is very modern and clean. The bedroom is very spacious with nice furniture and plenty of lights at thedesktop. There is a separate living space at one corner which make us feel like home not a hotel. The hotel provided plenty of  new clean towels every day and  good quality toiletries. The wall is very thin insulated which you can get disturbed from  the noise of people walking past through the corridor or closing the door. Fitness room is very good. All equipment are new and waiting to be used. I really enjoyed the breakfast here, especially making my own waffles every morning. There are good selections of food to choose from. The staff here is very friendly and knowledgeable. The pool is too open to the public view close to the car park, lobby and main road which I felt like I have no privacy at all. The hotel could do with more garden plants. Overall, it is an excellent  hotel compared to other chain hotels we have stayed at before. The quality of service and standard is exceptional. I would  recommend to everyone and hopefully will be back here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2015</t>
+  </si>
+  <si>
+    <t>We were travelling from London and stayed at Comfort Suites 3 nights while waiting for our cruise ship. The hotel is very modern and clean. The bedroom is very spacious with nice furniture and plenty of lights at thedesktop. There is a separate living space at one corner which make us feel like home not a hotel. The hotel provided plenty of  new clean towels every day and  good quality toiletries. The wall is very thin insulated which you can get disturbed from  the noise of people walking past through the corridor or closing the door. Fitness room is very good. All equipment are new and waiting to be used. I really enjoyed the breakfast here, especially making my own waffles every morning. There are good selections of food to choose from. The staff here is very friendly and knowledgeable. The pool is too open to the public view close to the car park, lobby and main road which I felt like I have no privacy at all. The hotel could do with more garden plants. Overall, it is an excellent  hotel compared to other chain hotels we have stayed at before. The quality of service and standard is exceptional. I would  recommend to everyone and hopefully will be back here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r255881146-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255881146</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>Very Satisfying Stay</t>
+  </si>
+  <si>
+    <t>We stayed at this property for the first time and recommend for anyone looking for a comfortable and pleasant stay. Rooms were clean and staff very friendly. We are Choice Privilege members and received a complimentary upgrade upon check in. The staff also called to make sure we were satisfied with the room. Good breakfast choices and hostess had to refill several times for the busy weekend crowd! Loved the modern walk in shower and comfortable bed. We will be back to enjoy another stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this property for the first time and recommend for anyone looking for a comfortable and pleasant stay. Rooms were clean and staff very friendly. We are Choice Privilege members and received a complimentary upgrade upon check in. The staff also called to make sure we were satisfied with the room. Good breakfast choices and hostess had to refill several times for the busy weekend crowd! Loved the modern walk in shower and comfortable bed. We will be back to enjoy another stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r253766041-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253766041</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>This Comfort Suites is a Gem</t>
+  </si>
+  <si>
+    <t>Stayed here for a weekend with the family to watch the Houston Astros wrap up their 2014 season and this hotel thoroughly impressed us.  If your staying on the south side of Houston this hotel would be a great choice to stay at. Our family has stayed at numerous Comfort Suites and this has to be one of their best.  Check-in was extremely fast and we were given complimentary cookies when we checked in.  The staff was very helpful and polite and we were welcomed as a Choice Hotel member.  Don't be alarmed as this hotel has private security and it seems to be the norm in the area.  The room was spacious, clean and the beds were extremely comfortable.  The room had a separate seating area and it had ample (and I mean ample) outlets for any electronics that you may have.  The continental breakfast was better than average and it also has healthier food options.It's obvious this hotel, staff and management pay attention to detail as it shows with the presentation of the property and how they deal with customers.  Thanks for making our stay enjoyable.   About the only suggestion I would have is, to put a towel rack closer to the shower/bath tub.  I can see people reaching across the toilet to get to the towels and possibly slipping on the floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded February 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for a weekend with the family to watch the Houston Astros wrap up their 2014 season and this hotel thoroughly impressed us.  If your staying on the south side of Houston this hotel would be a great choice to stay at. Our family has stayed at numerous Comfort Suites and this has to be one of their best.  Check-in was extremely fast and we were given complimentary cookies when we checked in.  The staff was very helpful and polite and we were welcomed as a Choice Hotel member.  Don't be alarmed as this hotel has private security and it seems to be the norm in the area.  The room was spacious, clean and the beds were extremely comfortable.  The room had a separate seating area and it had ample (and I mean ample) outlets for any electronics that you may have.  The continental breakfast was better than average and it also has healthier food options.It's obvious this hotel, staff and management pay attention to detail as it shows with the presentation of the property and how they deal with customers.  Thanks for making our stay enjoyable.   About the only suggestion I would have is, to put a towel rack closer to the shower/bath tub.  I can see people reaching across the toilet to get to the towels and possibly slipping on the floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r253445588-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253445588</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>excellent hotel</t>
+  </si>
+  <si>
+    <t>This is a very good comfort suitesnhotel. Friendly staff, front desk, housekeeping and the breakfast attendant were all friendly. The bed was super comfortable and the room clean. I am a choice privilege member and try and select choice hotes dur to the free night which they offerto frequent travellers.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very good comfort suitesnhotel. Friendly staff, front desk, housekeeping and the breakfast attendant were all friendly. The bed was super comfortable and the room clean. I am a choice privilege member and try and select choice hotes dur to the free night which they offerto frequent travellers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r249566014-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249566014</t>
+  </si>
+  <si>
+    <t>01/16/2015</t>
+  </si>
+  <si>
+    <t>Awesome Hotel/ Return Guest</t>
+  </si>
+  <si>
+    <t>This place is great! Every aspect. The hotel itself seems to be fairly new, however it is kept very clean. Staff has outstanding customer service. Each time I'm in Houston this will be where I stay! I definitely recommend this hotel if you are in the area as well. MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded February 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2015</t>
+  </si>
+  <si>
+    <t>This place is great! Every aspect. The hotel itself seems to be fairly new, however it is kept very clean. Staff has outstanding customer service. Each time I'm in Houston this will be where I stay! I definitely recommend this hotel if you are in the area as well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r246758944-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246758944</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay</t>
+  </si>
+  <si>
+    <t>It's a relatively new hotel.  It was a bit hard to find.  We had to follow google map.  Everything was new at hotel, and had extra pull out sofa twin bed for kid which is a plus for family (with price of one king bedroom).  My son enjoyed his extra space.  Super friendly staff, who offered us cookies when we checked in.  My son loved their cookies.  The front desk person brought up extra bedding for my son's twin bed himself promptly.  Room was very quiet, and very clean.  Just to be warned though, the bathroom had no bathtub, just shower room.  You can't plan to take a bath.  Breakfast was pretty standard with waffle maker and the rest.  They even had boiled egg which I liked.  We enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded January 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2015</t>
+  </si>
+  <si>
+    <t>It's a relatively new hotel.  It was a bit hard to find.  We had to follow google map.  Everything was new at hotel, and had extra pull out sofa twin bed for kid which is a plus for family (with price of one king bedroom).  My son enjoyed his extra space.  Super friendly staff, who offered us cookies when we checked in.  My son loved their cookies.  The front desk person brought up extra bedding for my son's twin bed himself promptly.  Room was very quiet, and very clean.  Just to be warned though, the bathroom had no bathtub, just shower room.  You can't plan to take a bath.  Breakfast was pretty standard with waffle maker and the rest.  They even had boiled egg which I liked.  We enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r244086942-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244086942</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>Excellent room and Top of the Line service</t>
+  </si>
+  <si>
+    <t>The hotel was very accommodating for our week long stay , there was a mall opposite for any shopping we wanted to do and the staff were very polite and courteous as we were coming In and out at all hours and they still asked if we needed anything, excellent place to stay and the price is around 110-140 us per night for two queen size beds holding four people.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded December 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2014</t>
+  </si>
+  <si>
+    <t>The hotel was very accommodating for our week long stay , there was a mall opposite for any shopping we wanted to do and the staff were very polite and courteous as we were coming In and out at all hours and they still asked if we needed anything, excellent place to stay and the price is around 110-140 us per night for two queen size beds holding four people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r237748777-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237748777</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Loved this hotel!!</t>
+  </si>
+  <si>
+    <t>We stayed here for the International Quilt Show in Houston.  I highly recommend this hotel.  The cleanliness, the comfort, and the wonderful staff make you feel right at home.  This hotel is much safer than staying downtown Houston and is worth the drive thru traffic!!  Very satisfied and highly recommended.Thank you staff for everything.  This hotel staff serves the guest and is the best!!THANK YOU FOR THE BEST STAY!. Now, it is back in the real world but it was wonderful to step away in this luxury.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded November 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for the International Quilt Show in Houston.  I highly recommend this hotel.  The cleanliness, the comfort, and the wonderful staff make you feel right at home.  This hotel is much safer than staying downtown Houston and is worth the drive thru traffic!!  Very satisfied and highly recommended.Thank you staff for everything.  This hotel staff serves the guest and is the best!!THANK YOU FOR THE BEST STAY!. Now, it is back in the real world but it was wonderful to step away in this luxury.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r236874814-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236874814</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>really good place to stay</t>
+  </si>
+  <si>
+    <t>We stayed 1 nights when we arrived to Houston and 1 night before leaving USA. The room was clean, the smell in the hotel is really nice,breakfast is good and it feels safe in this place.Everything is rather new in the room, so it feels comfortable to stay there.It was really good to return back to the hotel after travelling.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded October 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2014</t>
+  </si>
+  <si>
+    <t>We stayed 1 nights when we arrived to Houston and 1 night before leaving USA. The room was clean, the smell in the hotel is really nice,breakfast is good and it feels safe in this place.Everything is rather new in the room, so it feels comfortable to stay there.It was really good to return back to the hotel after travelling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r233698328-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233698328</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>Exceptional experience</t>
+  </si>
+  <si>
+    <t>We have been traveling in US since 2011, and I suppose it was the best hotel we've stayed ever in this price category.The staff were professional, polite and helpful. The room was extremely clean, all facilities are up-to-date and convenient. The location is acceptable for those who  are traveling by car. Thank you, guys, you made our stay so comfortable and awesome.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded October 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2014</t>
+  </si>
+  <si>
+    <t>We have been traveling in US since 2011, and I suppose it was the best hotel we've stayed ever in this price category.The staff were professional, polite and helpful. The room was extremely clean, all facilities are up-to-date and convenient. The location is acceptable for those who  are traveling by car. Thank you, guys, you made our stay so comfortable and awesome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r231904654-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231904654</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>Lupe was a very great help and the hotel is awesome! We have stayed here a few times and have gotten excellent service every time we have stayed here. I would recommend this hotel to anyone who is staying on this side of Houston. Great prices, clean, comfortable beds, and great people!MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Lupe was a very great help and the hotel is awesome! We have stayed here a few times and have gotten excellent service every time we have stayed here. I would recommend this hotel to anyone who is staying on this side of Houston. Great prices, clean, comfortable beds, and great people!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r231279661-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231279661</t>
+  </si>
+  <si>
+    <t>09/27/2014</t>
+  </si>
+  <si>
+    <t>Feels like home.</t>
+  </si>
+  <si>
+    <t>We were fortunate enough to visit Beltway 8 Comfort Suites again this month. This particular Comfort Suite feels more and more like home. We get such a warm welcome and friendly smiles. We are very proud to call it our home away from home. We highly recommend this Comfort Suites Hotel if you are looking for the best  in cleanliness,staff and service. We will be home soon once again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2014</t>
+  </si>
+  <si>
+    <t>We were fortunate enough to visit Beltway 8 Comfort Suites again this month. This particular Comfort Suite feels more and more like home. We get such a warm welcome and friendly smiles. We are very proud to call it our home away from home. We highly recommend this Comfort Suites Hotel if you are looking for the best  in cleanliness,staff and service. We will be home soon once again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r230192579-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>230192579</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Absolutely Amazing!!</t>
+  </si>
+  <si>
+    <t>This Hotel definitely exceeded my expectations! It was very clean and had  gorgeous interior design! The staff were excellent as well! While visiting the area, our GPS had misguided us tremendously! But, the front staff were able to get us back to our hotel with the easiest and fastest route without any hesitation! Very helpful and such a kind and very appreciated gesture they did for us. I highly recommend this hotel to anyone visiting the area...as they will not be disappointed! Thanks for giving us a great vacation and we WILL be back in the future!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded September 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2014</t>
+  </si>
+  <si>
+    <t>This Hotel definitely exceeded my expectations! It was very clean and had  gorgeous interior design! The staff were excellent as well! While visiting the area, our GPS had misguided us tremendously! But, the front staff were able to get us back to our hotel with the easiest and fastest route without any hesitation! Very helpful and such a kind and very appreciated gesture they did for us. I highly recommend this hotel to anyone visiting the area...as they will not be disappointed! Thanks for giving us a great vacation and we WILL be back in the future!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r228527041-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228527041</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and the staff were smiling all the time. Aside from the fridge noise in the room, everything was perfect. It's about 15 min driving to downtown. I'd really recommend that place to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded September 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2014</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and the staff were smiling all the time. Aside from the fridge noise in the room, everything was perfect. It's about 15 min driving to downtown. I'd really recommend that place to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r228017972-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228017972</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Excellent Staff, Clean, Quiet, Convenient...it's all good!</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for three nights while taking a training course in the Westchase area.  Comfort Suites was slightly further than several other hotels; however, the extra minute or two of drive time was well worth staying at this property.  The front desk staff, David especially, were engaging and helpful. When I asked about a restaurant's location, David looked it up and had a map printed and in my hand in a matter of seconds!   The hotel is very quiet, which is great for studying and relaxing.  I enjoyed going the pool watching the sunset and the color changing lights are fun after dark.  Next time, I am going to bring my bike because there is a super park with trails around a man made lake just across the beltway.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for three nights while taking a training course in the Westchase area.  Comfort Suites was slightly further than several other hotels; however, the extra minute or two of drive time was well worth staying at this property.  The front desk staff, David especially, were engaging and helpful. When I asked about a restaurant's location, David looked it up and had a map printed and in my hand in a matter of seconds!   The hotel is very quiet, which is great for studying and relaxing.  I enjoyed going the pool watching the sunset and the color changing lights are fun after dark.  Next time, I am going to bring my bike because there is a super park with trails around a man made lake just across the beltway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r227483311-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>227483311</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>My room at Comfort Suites</t>
+  </si>
+  <si>
+    <t>A big Room with nice sitting area facing a big LCD TV and oven for quick fix.A working desk with free WiFi that is great for my business trip. A hot Shower using stress relief soap from hotel + awesome King Size Bed to rejuvenateMoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>A big Room with nice sitting area facing a big LCD TV and oven for quick fix.A working desk with free WiFi that is great for my business trip. A hot Shower using stress relief soap from hotel + awesome King Size Bed to rejuvenateMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r226762635-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226762635</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>the service was great, very friendly and willing to help with any request. The breakfast was very complete, on Tuesday night the manager has chips with salsa and great spinach dip, was told they do this for the Tuesday and Wednesday guests. The price was reasonable, the room was large a very clean. We will definitely stay here again when traveling thru Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>the service was great, very friendly and willing to help with any request. The breakfast was very complete, on Tuesday night the manager has chips with salsa and great spinach dip, was told they do this for the Tuesday and Wednesday guests. The price was reasonable, the room was large a very clean. We will definitely stay here again when traveling thru Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r226155262-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226155262</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Fantastic!</t>
+  </si>
+  <si>
+    <t>What a great hotel! My boyfriend and I stayed here for a night during Labor Day weekend. New, clean, great breakfast! The manager even kept the pool open so we could swim around after hours. Staff were friendly and accommodating. Will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>What a great hotel! My boyfriend and I stayed here for a night during Labor Day weekend. New, clean, great breakfast! The manager even kept the pool open so we could swim around after hours. Staff were friendly and accommodating. Will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r226129377-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226129377</t>
+  </si>
+  <si>
+    <t>One of the best hotels in Houston</t>
+  </si>
+  <si>
+    <t>The hotel is very nice. Room is large, clean, and convenient with microwave, refrigerator, big television, and more. The breakfast is delicious. The staff is very friendly and helpful. There were two black dudes, who were not the hotel customers, entered the third floor around 9 p.m and talked loudly but they were kicked out by the hotel security in a very professional manner. This is one of military friendly hotels in Texas. I would definitely stay here again. However, the hotel needs to improve its Wi-Fi Internet. It dropped every 15 minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>The hotel is very nice. Room is large, clean, and convenient with microwave, refrigerator, big television, and more. The breakfast is delicious. The staff is very friendly and helpful. There were two black dudes, who were not the hotel customers, entered the third floor around 9 p.m and talked loudly but they were kicked out by the hotel security in a very professional manner. This is one of military friendly hotels in Texas. I would definitely stay here again. However, the hotel needs to improve its Wi-Fi Internet. It dropped every 15 minutes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r224711809-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>224711809</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Great Service!</t>
+  </si>
+  <si>
+    <t>After a long drive this hotel was an oasis. The hotel had great service, Lupa at the desk was very attentive to our needs.  When the first room we had didn't meet our needs, she was very quick to set us up in a new room.  Our room was modern and clean, with a great bathroom and also free wifi.  Mostly asian restaurants within driving distance. Free breakfast in the morning. Overall would definitely recommend this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded August 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2014</t>
+  </si>
+  <si>
+    <t>After a long drive this hotel was an oasis. The hotel had great service, Lupa at the desk was very attentive to our needs.  When the first room we had didn't meet our needs, she was very quick to set us up in a new room.  Our room was modern and clean, with a great bathroom and also free wifi.  Mostly asian restaurants within driving distance. Free breakfast in the morning. Overall would definitely recommend this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r223039197-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>223039197</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>absolutely top notch</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for one night on the way to Austin to visit our son at UT.  We could not possibly have been more impressed and pleased with this hotel.  The only staff person we interacted with was the desk manager but she was very knowledgeable about area restaurants AND the tricks to get in and out of them easily.  Our room was smartly decorated, spotlessly clean and blissfully QUIET.  There was a family with several small children in the next room and we never even heard them once.  Check in and out was effortless, as was booking the reservation (right here through TripAdvisor.com).  When I booked the room last week, this was rated #3 of 450 hotels in Houston.  Now I know why and you can be certain I will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded August 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2014</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for one night on the way to Austin to visit our son at UT.  We could not possibly have been more impressed and pleased with this hotel.  The only staff person we interacted with was the desk manager but she was very knowledgeable about area restaurants AND the tricks to get in and out of them easily.  Our room was smartly decorated, spotlessly clean and blissfully QUIET.  There was a family with several small children in the next room and we never even heard them once.  Check in and out was effortless, as was booking the reservation (right here through TripAdvisor.com).  When I booked the room last week, this was rated #3 of 450 hotels in Houston.  Now I know why and you can be certain I will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r221392066-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221392066</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Terrific value; new and clean facilities</t>
+  </si>
+  <si>
+    <t>We stayed here for one night while we attended a game at Minute Maid Park, about 30 minutes away. The facility looked new, the room was clean and comfortable and the staff was very helpful. The fitness room was also well maintained and had enough equipment for a good workout. The complimentary breakfast did not offer much variety, and I was surprised at the lack of restaurants nearby. Overall, very good lodging for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded August 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for one night while we attended a game at Minute Maid Park, about 30 minutes away. The facility looked new, the room was clean and comfortable and the staff was very helpful. The fitness room was also well maintained and had enough equipment for a good workout. The complimentary breakfast did not offer much variety, and I was surprised at the lack of restaurants nearby. Overall, very good lodging for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r216198523-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216198523</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Luxurious</t>
+  </si>
+  <si>
+    <t>The hote is situated off the Beltway for easy access and the property looks very nice from the outside. On checking in David at the desk was amazing, he checked me in, gave me some ideas on where to eat (Sushi), and gave me a fresh baked chocolate chip cookie, yum. Upon entering the room I was impressed with the size and layout. It had a small living room with a comfy couch and coffee table. The TV was large and state of the art, and it could be swiveled to be viewed from the living roo or the bed. The single bed was appealing to the eye and very copmfortable. Even though I am not a fan of the new trend to have 4 to 5 small pillows on hotel bed, I splept well every night. The room had a microwave, a refridgerator and a small coffee maker. The bathroom was spacious and the tub/shower was beautiful as well as functional. Climate control was actual;ly a thermostat on the wall which made keeping the room comfortable a easy task. Overall a fantastic hotel, and if you like Asian food is seem to be in the heart of Chinatown.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2014</t>
+  </si>
+  <si>
+    <t>The hote is situated off the Beltway for easy access and the property looks very nice from the outside. On checking in David at the desk was amazing, he checked me in, gave me some ideas on where to eat (Sushi), and gave me a fresh baked chocolate chip cookie, yum. Upon entering the room I was impressed with the size and layout. It had a small living room with a comfy couch and coffee table. The TV was large and state of the art, and it could be swiveled to be viewed from the living roo or the bed. The single bed was appealing to the eye and very copmfortable. Even though I am not a fan of the new trend to have 4 to 5 small pillows on hotel bed, I splept well every night. The room had a microwave, a refridgerator and a small coffee maker. The bathroom was spacious and the tub/shower was beautiful as well as functional. Climate control was actual;ly a thermostat on the wall which made keeping the room comfortable a easy task. Overall a fantastic hotel, and if you like Asian food is seem to be in the heart of Chinatown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r215352331-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215352331</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>One of the best Comfort Suites hotels</t>
+  </si>
+  <si>
+    <t>I have stayed in other Comfort Suites before, but this one is the best so far. The hotel was excellent in every level for the price. The lobby smelled fresh, looked elegant, and neat. The staff is very professional and helpful. The room was spacious, very clean, and first time you entered, you were greeted by nice chocolaty room smell. The overall look of the room was modern and elegant. Beds were very comfy. The hotel's swimming pool, fitness room, and business center were also very nice. The hot morning breakfast had enough variety and a step above most hotels' free breakfast. The hotel is located close to Bellaire Blvd, where you can find plenty of good Chinese and Asian restaurants. Overall, my family and I enjoyed our stay in this hotel very very much.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded July 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed in other Comfort Suites before, but this one is the best so far. The hotel was excellent in every level for the price. The lobby smelled fresh, looked elegant, and neat. The staff is very professional and helpful. The room was spacious, very clean, and first time you entered, you were greeted by nice chocolaty room smell. The overall look of the room was modern and elegant. Beds were very comfy. The hotel's swimming pool, fitness room, and business center were also very nice. The hot morning breakfast had enough variety and a step above most hotels' free breakfast. The hotel is located close to Bellaire Blvd, where you can find plenty of good Chinese and Asian restaurants. Overall, my family and I enjoyed our stay in this hotel very very much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r215074114-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215074114</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Great weekend stay!</t>
+  </si>
+  <si>
+    <t>This was a nice hotel and the breakfast buffet was very satisfying!  The room was a very nice size, the hotel was clean, it had a nice pool area and gym.  The staff was very pleasant and always greeted you with a smile!  No complaints here...MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a nice hotel and the breakfast buffet was very satisfying!  The room was a very nice size, the hotel was clean, it had a nice pool area and gym.  The staff was very pleasant and always greeted you with a smile!  No complaints here...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r213383235-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213383235</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Wisconsin Traveler</t>
+  </si>
+  <si>
+    <t>My wife and I really enjoyed our stay here. We wanted a first floor room and a larger one and they graciously saw to it that we got the room we wanted. This is the best Comfort Suites that we have stayed at and would certainly stay here again given the chance to return to the Houston area. It was also just a short distance to get to the Galleria Mall which we spent a good deal of our time we were in Houston. Thanks again for the great quality, the cleanliness and the comfort that was provided.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded July 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2014</t>
+  </si>
+  <si>
+    <t>My wife and I really enjoyed our stay here. We wanted a first floor room and a larger one and they graciously saw to it that we got the room we wanted. This is the best Comfort Suites that we have stayed at and would certainly stay here again given the chance to return to the Houston area. It was also just a short distance to get to the Galleria Mall which we spent a good deal of our time we were in Houston. Thanks again for the great quality, the cleanliness and the comfort that was provided.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r212338767-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212338767</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay!</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed staying at this hotel. The location was great, it was clean and we had plenty of room. The staff was friendly and helpful. We travel through this area at least twice a year and plan to stay here while in Houston in the future.  Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded June 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2014</t>
+  </si>
+  <si>
+    <t>My family and I enjoyed staying at this hotel. The location was great, it was clean and we had plenty of room. The staff was friendly and helpful. We travel through this area at least twice a year and plan to stay here while in Houston in the future.  Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r211068170-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211068170</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>Excellent place to stay</t>
+  </si>
+  <si>
+    <t>Have stayed in many Choice Hotels and all but one was very good. This one isexcellent, very clean, comfortable, and the breakfast was the best of any brand. I would highly recommend it if staying in Houston. About 10 miles from MD Anderson Cancer Center however it is a straight street to MDA.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded June 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2014</t>
+  </si>
+  <si>
+    <t>Have stayed in many Choice Hotels and all but one was very good. This one isexcellent, very clean, comfortable, and the breakfast was the best of any brand. I would highly recommend it if staying in Houston. About 10 miles from MD Anderson Cancer Center however it is a straight street to MDA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r209583591-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209583591</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Great hotel to visit!</t>
+  </si>
+  <si>
+    <t>Upon arriving great services from front desk personnel. As I enter the room it was clean and well kept. Also the front desk personnel called to see how we like the room. My family loved the stay at Comfort Suites Westbelt-Beltway 8. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded June 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2014</t>
+  </si>
+  <si>
+    <t>Upon arriving great services from front desk personnel. As I enter the room it was clean and well kept. Also the front desk personnel called to see how we like the room. My family loved the stay at Comfort Suites Westbelt-Beltway 8. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r207099270-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207099270</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outstanding </t>
+  </si>
+  <si>
+    <t>The hotel was super pleasant. There is nothing that compares walking into a clean smelling and gorgeous lobby. We enjoyed the bed and everything about the room. The breakfast was really good too. Thank you for such a glorious stay - this is what a Comfort Suites is suppose to be! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded May 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2014</t>
+  </si>
+  <si>
+    <t>The hotel was super pleasant. There is nothing that compares walking into a clean smelling and gorgeous lobby. We enjoyed the bed and everything about the room. The breakfast was really good too. Thank you for such a glorious stay - this is what a Comfort Suites is suppose to be! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r206624078-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206624078</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>An Absolute Hidden Gem of a Hotel</t>
+  </si>
+  <si>
+    <t>I'm honest as I usually stay at other competitor properties in Houston . This Comfort Suites on 7707 W Sam Houston Parkway was excellent and  way superior to all of my expectations.Breakfast was great and as well a  hot breakfast include in your stay.Front desk staff extremely helpful and genuine- Lupe was a breath of fresh air and great with customers. Great customer Service !Room furnishing were outstanding as the property is only 6 months old and really brand new.Price very competitive as  to other competitors in that area  .From someone who travels a great deal ,  i will return to this property In Houston Texas and recommend it highly to anyone traveling and needing to stay on the Southwest side of the city.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded May 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2014</t>
+  </si>
+  <si>
+    <t>I'm honest as I usually stay at other competitor properties in Houston . This Comfort Suites on 7707 W Sam Houston Parkway was excellent and  way superior to all of my expectations.Breakfast was great and as well a  hot breakfast include in your stay.Front desk staff extremely helpful and genuine- Lupe was a breath of fresh air and great with customers. Great customer Service !Room furnishing were outstanding as the property is only 6 months old and really brand new.Price very competitive as  to other competitors in that area  .From someone who travels a great deal ,  i will return to this property In Houston Texas and recommend it highly to anyone traveling and needing to stay on the Southwest side of the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r199912389-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199912389</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>Great hotel wonderful staff and outstanding service just what we needed</t>
+  </si>
+  <si>
+    <t>I would like to start by saying we were in Houston because my wife was to undergo surgery at MD Anderson, complications arose and we needed to stay longer before going back home over 500 miles away. We spent a full week at comfort suites hotel and were really cared for and helped by staff at every turn especially wanted to thank David at the front Desk for his encouragement and making sure everything was taken care of. This was a very difficult time for us and I couldn't ask for a better hotel and people running it. From now on when we have to travel to Houston there is only one hotel choice for us.Some other things I would like to mention The hotel is brand new. Breakfast was terrific lots of hot food, good selection and hotel employees ready to help and they did. Really liked the mini fridge, 46' tv, fast internet, laundry facility,security cameras and location were also a big plus. This hotel really has it all and is a block away from Bellaire ave full of good Restaurant's stores and such, so in closing if your in Houston and looking for a Top Notch hotel you will find it at Comfort Suites off of beltway 8. Thank you so much David and staff for everythingMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>I would like to start by saying we were in Houston because my wife was to undergo surgery at MD Anderson, complications arose and we needed to stay longer before going back home over 500 miles away. We spent a full week at comfort suites hotel and were really cared for and helped by staff at every turn especially wanted to thank David at the front Desk for his encouragement and making sure everything was taken care of. This was a very difficult time for us and I couldn't ask for a better hotel and people running it. From now on when we have to travel to Houston there is only one hotel choice for us.Some other things I would like to mention The hotel is brand new. Breakfast was terrific lots of hot food, good selection and hotel employees ready to help and they did. Really liked the mini fridge, 46' tv, fast internet, laundry facility,security cameras and location were also a big plus. This hotel really has it all and is a block away from Bellaire ave full of good Restaurant's stores and such, so in closing if your in Houston and looking for a Top Notch hotel you will find it at Comfort Suites off of beltway 8. Thank you so much David and staff for everythingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r198588804-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198588804</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>New Hotel, Excellent Location!</t>
+  </si>
+  <si>
+    <t>This property is brand new, and has only been open for 3 months.  Check in was a breeze, and the staff is friendly, personable and efficient.  David and Myriam are a true asset to the front desk, as they make each guest feel like a friend.  I stayed in room 327, bed was comfortable, clean and has a large TV and a fridge.  The water pressure was good when I took my morning shower, and I will definitely stay at this hotel next time I am in Houston to visit family.  Thank you for such a pleasant stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2014</t>
+  </si>
+  <si>
+    <t>This property is brand new, and has only been open for 3 months.  Check in was a breeze, and the staff is friendly, personable and efficient.  David and Myriam are a true asset to the front desk, as they make each guest feel like a friend.  I stayed in room 327, bed was comfortable, clean and has a large TV and a fridge.  The water pressure was good when I took my morning shower, and I will definitely stay at this hotel next time I am in Houston to visit family.  Thank you for such a pleasant stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r198164824-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198164824</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>I'll be back!</t>
+  </si>
+  <si>
+    <t>I was running late when I arrived and the wonderful gal at the front desk put my mind at ease. "The people at your meeting will understand!  You came all the way from Massachusetts.  I'll put you close by on the first floor so you can get on the road quickly."   I needed to hear that. I calmed down and made it to the meeting with time to spare!  The service was great, the staff were happy and kind.  The place is spotless!  Can't wait to stay here on my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded March 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2014</t>
+  </si>
+  <si>
+    <t>I was running late when I arrived and the wonderful gal at the front desk put my mind at ease. "The people at your meeting will understand!  You came all the way from Massachusetts.  I'll put you close by on the first floor so you can get on the road quickly."   I needed to hear that. I calmed down and made it to the meeting with time to spare!  The service was great, the staff were happy and kind.  The place is spotless!  Can't wait to stay here on my next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r196726872-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196726872</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>When I walked into the lobby, the hotel still had the "new" smell.  Very nice.  The entire staff was overly-friendly.  Rooms were clean.  Great furniture.  LOVED the BIG HD TV.  Great exercise room with 2 treadmills!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded March 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2014</t>
+  </si>
+  <si>
+    <t>When I walked into the lobby, the hotel still had the "new" smell.  Very nice.  The entire staff was overly-friendly.  Rooms were clean.  Great furniture.  LOVED the BIG HD TV.  Great exercise room with 2 treadmills!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r195364119-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195364119</t>
+  </si>
+  <si>
+    <t>02/25/2014</t>
+  </si>
+  <si>
+    <t>Hidden Gem!!</t>
+  </si>
+  <si>
+    <t>We loved our stay here. The room was fresh and clean, with great amenities.  The bathroom shower was spacious and all glass.  Loved the seating area and swivel flat screen.  The decor was modern and comfortable.  Staff was nice, we overslept for breakfast but at least it was an option. The price was a steal for a weekend rate.  We will stay again!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded February 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2014</t>
+  </si>
+  <si>
+    <t>We loved our stay here. The room was fresh and clean, with great amenities.  The bathroom shower was spacious and all glass.  Loved the seating area and swivel flat screen.  The decor was modern and comfortable.  Staff was nice, we overslept for breakfast but at least it was an option. The price was a steal for a weekend rate.  We will stay again!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r194889552-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194889552</t>
+  </si>
+  <si>
+    <t>02/21/2014</t>
+  </si>
+  <si>
+    <t>A Beautiful Experience!</t>
+  </si>
+  <si>
+    <t>We stayed an entire weekend, and I must say, we didn't want to leave. The room was beautiful and clean, the front desk and cleaning staff was awesome and I don't think it could've been aa better experience.  What a great location as well, everything you need to get to is only minutes away! Kudos to you Comfort Suites, kudos!MoreShow less</t>
+  </si>
+  <si>
+    <t>Myriam F, Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded February 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2014</t>
+  </si>
+  <si>
+    <t>We stayed an entire weekend, and I must say, we didn't want to leave. The room was beautiful and clean, the front desk and cleaning staff was awesome and I don't think it could've been aa better experience.  What a great location as well, everything you need to get to is only minutes away! Kudos to you Comfort Suites, kudos!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r194188102-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194188102</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>Weekend Away</t>
+  </si>
+  <si>
+    <t>This was the first time that we've stayed at Comfort Suites in general and I was really impressed.  The staff were cordial, the rooms were beautiful and breakfast was fresh.  I would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alif M, General Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded February 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2014</t>
+  </si>
+  <si>
+    <t>This was the first time that we've stayed at Comfort Suites in general and I was really impressed.  The staff were cordial, the rooms were beautiful and breakfast was fresh.  I would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d5551125-r191643288-Comfort_Suites_Houston_West_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191643288</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
+    <t>Brand New Hotel</t>
+  </si>
+  <si>
+    <t>Recently stayed at this new property, and might I say it was perfect. The staff was excellent they even gave me a fresh baked cookie at check in. Once I entered the room, I was STUNNED. I usually stay at the nearby properties a few times a month but this hotel was different. This hotel out does all of them. Massive TVs and extremely comfortable beds. They even host a complimentary happy hour which serves beer, wine and wings depending on what night. I will definitely return back!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Alif M, General Manager at Comfort Suites Houston West Beltway 8, responded to this reviewResponded February 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2014</t>
+  </si>
+  <si>
+    <t>Recently stayed at this new property, and might I say it was perfect. The staff was excellent they even gave me a fresh baked cookie at check in. Once I entered the room, I was STUNNED. I usually stay at the nearby properties a few times a month but this hotel was different. This hotel out does all of them. Massive TVs and extremely comfortable beds. They even host a complimentary happy hour which serves beer, wine and wings depending on what night. I will definitely return back!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2826,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2858,6627 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>74</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>181</v>
+      </c>
+      <c r="X23" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>190</v>
+      </c>
+      <c r="X24" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>190</v>
+      </c>
+      <c r="X25" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>189</v>
+      </c>
+      <c r="O26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>204</v>
+      </c>
+      <c r="X26" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>212</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>213</v>
+      </c>
+      <c r="X27" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>212</v>
+      </c>
+      <c r="O28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>213</v>
+      </c>
+      <c r="X28" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>228</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>229</v>
+      </c>
+      <c r="X29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>229</v>
+      </c>
+      <c r="X30" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" t="s">
+        <v>240</v>
+      </c>
+      <c r="K31" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s">
+        <v>242</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>243</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>229</v>
+      </c>
+      <c r="X31" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" t="s">
+        <v>252</v>
+      </c>
+      <c r="K33" t="s">
+        <v>253</v>
+      </c>
+      <c r="L33" t="s">
+        <v>254</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>261</v>
+      </c>
+      <c r="X34" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>265</v>
+      </c>
+      <c r="J35" t="s">
+        <v>266</v>
+      </c>
+      <c r="K35" t="s">
+        <v>267</v>
+      </c>
+      <c r="L35" t="s">
+        <v>268</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>260</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" t="s">
+        <v>272</v>
+      </c>
+      <c r="L36" t="s">
+        <v>273</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>275</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>276</v>
+      </c>
+      <c r="J37" t="s">
+        <v>277</v>
+      </c>
+      <c r="K37" t="s">
+        <v>278</v>
+      </c>
+      <c r="L37" t="s">
+        <v>279</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>280</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>281</v>
+      </c>
+      <c r="X37" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>285</v>
+      </c>
+      <c r="J38" t="s">
+        <v>286</v>
+      </c>
+      <c r="K38" t="s">
+        <v>287</v>
+      </c>
+      <c r="L38" t="s">
+        <v>288</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>280</v>
+      </c>
+      <c r="O38" t="s">
+        <v>228</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>289</v>
+      </c>
+      <c r="X38" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>292</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>293</v>
+      </c>
+      <c r="J39" t="s">
+        <v>294</v>
+      </c>
+      <c r="K39" t="s">
+        <v>295</v>
+      </c>
+      <c r="L39" t="s">
+        <v>296</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>297</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>289</v>
+      </c>
+      <c r="X39" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>299</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>300</v>
+      </c>
+      <c r="J40" t="s">
+        <v>301</v>
+      </c>
+      <c r="K40" t="s">
+        <v>302</v>
+      </c>
+      <c r="L40" t="s">
+        <v>303</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>304</v>
+      </c>
+      <c r="O40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>305</v>
+      </c>
+      <c r="X40" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>308</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>309</v>
+      </c>
+      <c r="J41" t="s">
+        <v>310</v>
+      </c>
+      <c r="K41" t="s">
+        <v>311</v>
+      </c>
+      <c r="L41" t="s">
+        <v>312</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>313</v>
+      </c>
+      <c r="X41" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>316</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>317</v>
+      </c>
+      <c r="J42" t="s">
+        <v>318</v>
+      </c>
+      <c r="K42" t="s">
+        <v>319</v>
+      </c>
+      <c r="L42" t="s">
+        <v>320</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>304</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>313</v>
+      </c>
+      <c r="X42" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>322</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>323</v>
+      </c>
+      <c r="J43" t="s">
+        <v>324</v>
+      </c>
+      <c r="K43" t="s">
+        <v>325</v>
+      </c>
+      <c r="L43" t="s">
+        <v>326</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>327</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>328</v>
+      </c>
+      <c r="X43" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>331</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>332</v>
+      </c>
+      <c r="J44" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" t="s">
+        <v>334</v>
+      </c>
+      <c r="L44" t="s">
+        <v>335</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>336</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>337</v>
+      </c>
+      <c r="X44" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>341</v>
+      </c>
+      <c r="J45" t="s">
+        <v>342</v>
+      </c>
+      <c r="K45" t="s">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s">
+        <v>344</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>336</v>
+      </c>
+      <c r="O45" t="s">
+        <v>228</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>337</v>
+      </c>
+      <c r="X45" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" t="s">
+        <v>348</v>
+      </c>
+      <c r="K46" t="s">
+        <v>349</v>
+      </c>
+      <c r="L46" t="s">
+        <v>350</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>336</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>337</v>
+      </c>
+      <c r="X46" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>353</v>
+      </c>
+      <c r="J47" t="s">
+        <v>354</v>
+      </c>
+      <c r="K47" t="s">
+        <v>355</v>
+      </c>
+      <c r="L47" t="s">
+        <v>356</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>357</v>
+      </c>
+      <c r="X47" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>360</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>361</v>
+      </c>
+      <c r="J48" t="s">
+        <v>362</v>
+      </c>
+      <c r="K48" t="s">
+        <v>363</v>
+      </c>
+      <c r="L48" t="s">
+        <v>364</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>357</v>
+      </c>
+      <c r="X48" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>366</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>367</v>
+      </c>
+      <c r="J49" t="s">
+        <v>368</v>
+      </c>
+      <c r="K49" t="s">
+        <v>369</v>
+      </c>
+      <c r="L49" t="s">
+        <v>370</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>371</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>357</v>
+      </c>
+      <c r="X49" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>373</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J50" t="s">
+        <v>375</v>
+      </c>
+      <c r="K50" t="s">
+        <v>376</v>
+      </c>
+      <c r="L50" t="s">
+        <v>377</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>371</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>357</v>
+      </c>
+      <c r="X50" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>379</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>380</v>
+      </c>
+      <c r="J51" t="s">
+        <v>381</v>
+      </c>
+      <c r="K51" t="s">
+        <v>382</v>
+      </c>
+      <c r="L51" t="s">
+        <v>383</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>371</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>357</v>
+      </c>
+      <c r="X51" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>385</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>386</v>
+      </c>
+      <c r="J52" t="s">
+        <v>381</v>
+      </c>
+      <c r="K52" t="s">
+        <v>387</v>
+      </c>
+      <c r="L52" t="s">
+        <v>388</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>371</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>357</v>
+      </c>
+      <c r="X52" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>390</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>391</v>
+      </c>
+      <c r="J53" t="s">
+        <v>392</v>
+      </c>
+      <c r="K53" t="s">
+        <v>393</v>
+      </c>
+      <c r="L53" t="s">
+        <v>394</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>395</v>
+      </c>
+      <c r="O53" t="s">
+        <v>74</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>396</v>
+      </c>
+      <c r="X53" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>399</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>400</v>
+      </c>
+      <c r="J54" t="s">
+        <v>401</v>
+      </c>
+      <c r="K54" t="s">
+        <v>402</v>
+      </c>
+      <c r="L54" t="s">
+        <v>403</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>395</v>
+      </c>
+      <c r="O54" t="s">
+        <v>228</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>396</v>
+      </c>
+      <c r="X54" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>405</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>406</v>
+      </c>
+      <c r="J55" t="s">
+        <v>407</v>
+      </c>
+      <c r="K55" t="s">
+        <v>408</v>
+      </c>
+      <c r="L55" t="s">
+        <v>409</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>395</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>410</v>
+      </c>
+      <c r="X55" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>413</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>414</v>
+      </c>
+      <c r="J56" t="s">
+        <v>415</v>
+      </c>
+      <c r="K56" t="s">
+        <v>416</v>
+      </c>
+      <c r="L56" t="s">
+        <v>417</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>418</v>
+      </c>
+      <c r="X56" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>421</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>422</v>
+      </c>
+      <c r="J57" t="s">
+        <v>415</v>
+      </c>
+      <c r="K57" t="s">
+        <v>423</v>
+      </c>
+      <c r="L57" t="s">
+        <v>424</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>395</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>418</v>
+      </c>
+      <c r="X57" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>426</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>427</v>
+      </c>
+      <c r="J58" t="s">
+        <v>428</v>
+      </c>
+      <c r="K58" t="s">
+        <v>429</v>
+      </c>
+      <c r="L58" t="s">
+        <v>430</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>243</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>418</v>
+      </c>
+      <c r="X58" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>432</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>433</v>
+      </c>
+      <c r="J59" t="s">
+        <v>434</v>
+      </c>
+      <c r="K59" t="s">
+        <v>435</v>
+      </c>
+      <c r="L59" t="s">
+        <v>436</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>243</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>437</v>
+      </c>
+      <c r="X59" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>440</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>441</v>
+      </c>
+      <c r="J60" t="s">
+        <v>442</v>
+      </c>
+      <c r="K60" t="s">
+        <v>443</v>
+      </c>
+      <c r="L60" t="s">
+        <v>444</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>243</v>
+      </c>
+      <c r="O60" t="s">
+        <v>74</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>445</v>
+      </c>
+      <c r="X60" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>448</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>449</v>
+      </c>
+      <c r="J61" t="s">
+        <v>450</v>
+      </c>
+      <c r="K61" t="s">
+        <v>451</v>
+      </c>
+      <c r="L61" t="s">
+        <v>452</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>453</v>
+      </c>
+      <c r="X61" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>456</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>457</v>
+      </c>
+      <c r="J62" t="s">
+        <v>458</v>
+      </c>
+      <c r="K62" t="s">
+        <v>459</v>
+      </c>
+      <c r="L62" t="s">
+        <v>460</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>461</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>462</v>
+      </c>
+      <c r="X62" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>465</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>466</v>
+      </c>
+      <c r="J63" t="s">
+        <v>467</v>
+      </c>
+      <c r="K63" t="s">
+        <v>468</v>
+      </c>
+      <c r="L63" t="s">
+        <v>469</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>470</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>462</v>
+      </c>
+      <c r="X63" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>472</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>473</v>
+      </c>
+      <c r="J64" t="s">
+        <v>467</v>
+      </c>
+      <c r="K64" t="s">
+        <v>474</v>
+      </c>
+      <c r="L64" t="s">
+        <v>475</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>462</v>
+      </c>
+      <c r="X64" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>477</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>478</v>
+      </c>
+      <c r="J65" t="s">
+        <v>479</v>
+      </c>
+      <c r="K65" t="s">
+        <v>480</v>
+      </c>
+      <c r="L65" t="s">
+        <v>481</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>482</v>
+      </c>
+      <c r="X65" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>485</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>486</v>
+      </c>
+      <c r="J66" t="s">
+        <v>487</v>
+      </c>
+      <c r="K66" t="s">
+        <v>488</v>
+      </c>
+      <c r="L66" t="s">
+        <v>489</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>470</v>
+      </c>
+      <c r="O66" t="s">
+        <v>74</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>490</v>
+      </c>
+      <c r="X66" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>493</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>494</v>
+      </c>
+      <c r="J67" t="s">
+        <v>495</v>
+      </c>
+      <c r="K67" t="s">
+        <v>496</v>
+      </c>
+      <c r="L67" t="s">
+        <v>497</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>498</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>499</v>
+      </c>
+      <c r="X67" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>502</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>503</v>
+      </c>
+      <c r="J68" t="s">
+        <v>504</v>
+      </c>
+      <c r="K68" t="s">
+        <v>505</v>
+      </c>
+      <c r="L68" t="s">
+        <v>506</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>498</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>507</v>
+      </c>
+      <c r="X68" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>510</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>511</v>
+      </c>
+      <c r="J69" t="s">
+        <v>512</v>
+      </c>
+      <c r="K69" t="s">
+        <v>513</v>
+      </c>
+      <c r="L69" t="s">
+        <v>514</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>515</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>516</v>
+      </c>
+      <c r="X69" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>519</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>520</v>
+      </c>
+      <c r="J70" t="s">
+        <v>521</v>
+      </c>
+      <c r="K70" t="s">
+        <v>522</v>
+      </c>
+      <c r="L70" t="s">
+        <v>523</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>498</v>
+      </c>
+      <c r="O70" t="s">
+        <v>74</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>516</v>
+      </c>
+      <c r="X70" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>525</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>526</v>
+      </c>
+      <c r="J71" t="s">
+        <v>527</v>
+      </c>
+      <c r="K71" t="s">
+        <v>528</v>
+      </c>
+      <c r="L71" t="s">
+        <v>529</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>530</v>
+      </c>
+      <c r="X71" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>533</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>534</v>
+      </c>
+      <c r="J72" t="s">
+        <v>535</v>
+      </c>
+      <c r="K72" t="s">
+        <v>536</v>
+      </c>
+      <c r="L72" t="s">
+        <v>537</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>538</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>539</v>
+      </c>
+      <c r="X72" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>542</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>543</v>
+      </c>
+      <c r="J73" t="s">
+        <v>544</v>
+      </c>
+      <c r="K73" t="s">
+        <v>545</v>
+      </c>
+      <c r="L73" t="s">
+        <v>546</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>547</v>
+      </c>
+      <c r="X73" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>550</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>551</v>
+      </c>
+      <c r="J74" t="s">
+        <v>552</v>
+      </c>
+      <c r="K74" t="s">
+        <v>553</v>
+      </c>
+      <c r="L74" t="s">
+        <v>554</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>555</v>
+      </c>
+      <c r="O74" t="s">
+        <v>74</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>556</v>
+      </c>
+      <c r="X74" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>559</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>560</v>
+      </c>
+      <c r="J75" t="s">
+        <v>561</v>
+      </c>
+      <c r="K75" t="s">
+        <v>562</v>
+      </c>
+      <c r="L75" t="s">
+        <v>563</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>555</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>564</v>
+      </c>
+      <c r="X75" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>567</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>568</v>
+      </c>
+      <c r="J76" t="s">
+        <v>569</v>
+      </c>
+      <c r="K76" t="s">
+        <v>570</v>
+      </c>
+      <c r="L76" t="s">
+        <v>571</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>555</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>572</v>
+      </c>
+      <c r="X76" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>575</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>576</v>
+      </c>
+      <c r="J77" t="s">
+        <v>577</v>
+      </c>
+      <c r="K77" t="s">
+        <v>578</v>
+      </c>
+      <c r="L77" t="s">
+        <v>579</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>515</v>
+      </c>
+      <c r="O77" t="s">
+        <v>74</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>580</v>
+      </c>
+      <c r="X77" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>583</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>584</v>
+      </c>
+      <c r="J78" t="s">
+        <v>585</v>
+      </c>
+      <c r="K78" t="s">
+        <v>586</v>
+      </c>
+      <c r="L78" t="s">
+        <v>587</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>588</v>
+      </c>
+      <c r="X78" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>591</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>592</v>
+      </c>
+      <c r="J79" t="s">
+        <v>593</v>
+      </c>
+      <c r="K79" t="s">
+        <v>594</v>
+      </c>
+      <c r="L79" t="s">
+        <v>595</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>515</v>
+      </c>
+      <c r="O79" t="s">
+        <v>228</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>596</v>
+      </c>
+      <c r="X79" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>599</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>600</v>
+      </c>
+      <c r="J80" t="s">
+        <v>601</v>
+      </c>
+      <c r="K80" t="s">
+        <v>602</v>
+      </c>
+      <c r="L80" t="s">
+        <v>603</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>515</v>
+      </c>
+      <c r="O80" t="s">
+        <v>74</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>604</v>
+      </c>
+      <c r="X80" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>607</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>608</v>
+      </c>
+      <c r="J81" t="s">
+        <v>609</v>
+      </c>
+      <c r="K81" t="s">
+        <v>610</v>
+      </c>
+      <c r="L81" t="s">
+        <v>611</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>515</v>
+      </c>
+      <c r="O81" t="s">
+        <v>74</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>604</v>
+      </c>
+      <c r="X81" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>613</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>614</v>
+      </c>
+      <c r="J82" t="s">
+        <v>615</v>
+      </c>
+      <c r="K82" t="s">
+        <v>616</v>
+      </c>
+      <c r="L82" t="s">
+        <v>617</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>515</v>
+      </c>
+      <c r="O82" t="s">
+        <v>74</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>618</v>
+      </c>
+      <c r="X82" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>621</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>622</v>
+      </c>
+      <c r="J83" t="s">
+        <v>623</v>
+      </c>
+      <c r="K83" t="s">
+        <v>624</v>
+      </c>
+      <c r="L83" t="s">
+        <v>625</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>515</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>618</v>
+      </c>
+      <c r="X83" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>627</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>628</v>
+      </c>
+      <c r="J84" t="s">
+        <v>629</v>
+      </c>
+      <c r="K84" t="s">
+        <v>630</v>
+      </c>
+      <c r="L84" t="s">
+        <v>631</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>632</v>
+      </c>
+      <c r="X84" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>635</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>636</v>
+      </c>
+      <c r="J85" t="s">
+        <v>629</v>
+      </c>
+      <c r="K85" t="s">
+        <v>637</v>
+      </c>
+      <c r="L85" t="s">
+        <v>638</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>639</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>632</v>
+      </c>
+      <c r="X85" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>641</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>642</v>
+      </c>
+      <c r="J86" t="s">
+        <v>643</v>
+      </c>
+      <c r="K86" t="s">
+        <v>644</v>
+      </c>
+      <c r="L86" t="s">
+        <v>645</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>639</v>
+      </c>
+      <c r="O86" t="s">
+        <v>74</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>646</v>
+      </c>
+      <c r="X86" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>649</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>650</v>
+      </c>
+      <c r="J87" t="s">
+        <v>651</v>
+      </c>
+      <c r="K87" t="s">
+        <v>652</v>
+      </c>
+      <c r="L87" t="s">
+        <v>653</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>639</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>654</v>
+      </c>
+      <c r="X87" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>657</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>658</v>
+      </c>
+      <c r="J88" t="s">
+        <v>659</v>
+      </c>
+      <c r="K88" t="s">
+        <v>660</v>
+      </c>
+      <c r="L88" t="s">
+        <v>661</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>662</v>
+      </c>
+      <c r="O88" t="s">
+        <v>228</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>663</v>
+      </c>
+      <c r="X88" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>666</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>667</v>
+      </c>
+      <c r="J89" t="s">
+        <v>668</v>
+      </c>
+      <c r="K89" t="s">
+        <v>669</v>
+      </c>
+      <c r="L89" t="s">
+        <v>670</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>662</v>
+      </c>
+      <c r="O89" t="s">
+        <v>74</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>671</v>
+      </c>
+      <c r="X89" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>674</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>675</v>
+      </c>
+      <c r="J90" t="s">
+        <v>676</v>
+      </c>
+      <c r="K90" t="s">
+        <v>677</v>
+      </c>
+      <c r="L90" t="s">
+        <v>678</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>662</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>679</v>
+      </c>
+      <c r="X90" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>682</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>683</v>
+      </c>
+      <c r="J91" t="s">
+        <v>684</v>
+      </c>
+      <c r="K91" t="s">
+        <v>685</v>
+      </c>
+      <c r="L91" t="s">
+        <v>686</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>662</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>679</v>
+      </c>
+      <c r="X91" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>688</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>689</v>
+      </c>
+      <c r="J92" t="s">
+        <v>690</v>
+      </c>
+      <c r="K92" t="s">
+        <v>691</v>
+      </c>
+      <c r="L92" t="s">
+        <v>692</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>693</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>694</v>
+      </c>
+      <c r="X92" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>697</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>698</v>
+      </c>
+      <c r="J93" t="s">
+        <v>699</v>
+      </c>
+      <c r="K93" t="s">
+        <v>700</v>
+      </c>
+      <c r="L93" t="s">
+        <v>701</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>702</v>
+      </c>
+      <c r="X93" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>705</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>706</v>
+      </c>
+      <c r="J94" t="s">
+        <v>707</v>
+      </c>
+      <c r="K94" t="s">
+        <v>708</v>
+      </c>
+      <c r="L94" t="s">
+        <v>709</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>693</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>710</v>
+      </c>
+      <c r="X94" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>713</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>714</v>
+      </c>
+      <c r="J95" t="s">
+        <v>715</v>
+      </c>
+      <c r="K95" t="s">
+        <v>716</v>
+      </c>
+      <c r="L95" t="s">
+        <v>717</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>718</v>
+      </c>
+      <c r="X95" t="s">
+        <v>719</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>721</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>722</v>
+      </c>
+      <c r="J96" t="s">
+        <v>723</v>
+      </c>
+      <c r="K96" t="s">
+        <v>724</v>
+      </c>
+      <c r="L96" t="s">
+        <v>725</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>726</v>
+      </c>
+      <c r="O96" t="s">
+        <v>60</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>727</v>
+      </c>
+      <c r="X96" t="s">
+        <v>728</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>730</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>731</v>
+      </c>
+      <c r="J97" t="s">
+        <v>732</v>
+      </c>
+      <c r="K97" t="s">
+        <v>733</v>
+      </c>
+      <c r="L97" t="s">
+        <v>734</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>726</v>
+      </c>
+      <c r="O97" t="s">
+        <v>74</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>735</v>
+      </c>
+      <c r="X97" t="s">
+        <v>736</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>738</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>739</v>
+      </c>
+      <c r="J98" t="s">
+        <v>740</v>
+      </c>
+      <c r="K98" t="s">
+        <v>741</v>
+      </c>
+      <c r="L98" t="s">
+        <v>742</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>743</v>
+      </c>
+      <c r="O98" t="s">
+        <v>74</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>744</v>
+      </c>
+      <c r="X98" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>747</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>748</v>
+      </c>
+      <c r="J99" t="s">
+        <v>749</v>
+      </c>
+      <c r="K99" t="s">
+        <v>750</v>
+      </c>
+      <c r="L99" t="s">
+        <v>751</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>752</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>753</v>
+      </c>
+      <c r="X99" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>756</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>757</v>
+      </c>
+      <c r="J100" t="s">
+        <v>758</v>
+      </c>
+      <c r="K100" t="s">
+        <v>759</v>
+      </c>
+      <c r="L100" t="s">
+        <v>760</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>752</v>
+      </c>
+      <c r="O100" t="s">
+        <v>74</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>761</v>
+      </c>
+      <c r="X100" t="s">
+        <v>762</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>764</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>765</v>
+      </c>
+      <c r="J101" t="s">
+        <v>766</v>
+      </c>
+      <c r="K101" t="s">
+        <v>767</v>
+      </c>
+      <c r="L101" t="s">
+        <v>768</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>743</v>
+      </c>
+      <c r="O101" t="s">
+        <v>74</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>769</v>
+      </c>
+      <c r="X101" t="s">
+        <v>770</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>772</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>773</v>
+      </c>
+      <c r="J102" t="s">
+        <v>774</v>
+      </c>
+      <c r="K102" t="s">
+        <v>775</v>
+      </c>
+      <c r="L102" t="s">
+        <v>776</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>743</v>
+      </c>
+      <c r="O102" t="s">
+        <v>60</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>777</v>
+      </c>
+      <c r="X102" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>780</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>781</v>
+      </c>
+      <c r="J103" t="s">
+        <v>782</v>
+      </c>
+      <c r="K103" t="s">
+        <v>783</v>
+      </c>
+      <c r="L103" t="s">
+        <v>784</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>743</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>785</v>
+      </c>
+      <c r="X103" t="s">
+        <v>786</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>788</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>789</v>
+      </c>
+      <c r="J104" t="s">
+        <v>790</v>
+      </c>
+      <c r="K104" t="s">
+        <v>791</v>
+      </c>
+      <c r="L104" t="s">
+        <v>792</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>743</v>
+      </c>
+      <c r="O104" t="s">
+        <v>60</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>793</v>
+      </c>
+      <c r="X104" t="s">
+        <v>794</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>62572</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>796</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>797</v>
+      </c>
+      <c r="J105" t="s">
+        <v>798</v>
+      </c>
+      <c r="K105" t="s">
+        <v>799</v>
+      </c>
+      <c r="L105" t="s">
+        <v>800</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>801</v>
+      </c>
+      <c r="O105" t="s">
+        <v>74</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>802</v>
+      </c>
+      <c r="X105" t="s">
+        <v>803</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>804</v>
       </c>
     </row>
   </sheetData>
